--- a/examples/Test_DesignBased_Estimator/Design Based Estimates.xlsx
+++ b/examples/Test_DesignBased_Estimator/Design Based Estimates.xlsx
@@ -6,22 +6,28 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Pacific ocean perch" r:id="rId3" sheetId="1"/>
-    <sheet name="Walleye pollock" r:id="rId4" sheetId="2"/>
-    <sheet name="Pacific cod" r:id="rId5" sheetId="3"/>
-    <sheet name="Northern rockfish" r:id="rId6" sheetId="4"/>
-    <sheet name="Dover sole" r:id="rId7" sheetId="5"/>
-    <sheet name="Big skate" r:id="rId8" sheetId="6"/>
-    <sheet name="Atka mackerel" r:id="rId9" sheetId="7"/>
-    <sheet name="Harlequin rockfish" r:id="rId10" sheetId="8"/>
-    <sheet name="Arrowtooth flounder" r:id="rId11" sheetId="9"/>
-    <sheet name="Spiny dogfish" r:id="rId12" sheetId="10"/>
+    <sheet name="GOA_Pacific ocean perch" r:id="rId3" sheetId="1"/>
+    <sheet name="AI_Pacific ocean perch" r:id="rId4" sheetId="2"/>
+    <sheet name="GOA_Walleye pollock" r:id="rId5" sheetId="3"/>
+    <sheet name="AI_Walleye pollock" r:id="rId6" sheetId="4"/>
+    <sheet name="GOA_Pacific cod" r:id="rId7" sheetId="5"/>
+    <sheet name="EBS_SHELF_Pacific cod" r:id="rId8" sheetId="6"/>
+    <sheet name="AI_Pacific cod" r:id="rId9" sheetId="7"/>
+    <sheet name="GOA_Northern rockfish" r:id="rId10" sheetId="8"/>
+    <sheet name="AI_Northern rockfish" r:id="rId11" sheetId="9"/>
+    <sheet name="GOA_Dover sole" r:id="rId12" sheetId="10"/>
+    <sheet name="GOA_Big skate" r:id="rId13" sheetId="11"/>
+    <sheet name="AI_Atka mackerel" r:id="rId14" sheetId="12"/>
+    <sheet name="GOA_Harlequin rockfish" r:id="rId15" sheetId="13"/>
+    <sheet name="GOA_Arrowtooth flounder" r:id="rId16" sheetId="14"/>
+    <sheet name="EBS_SHELF_Arrowtooth flounder" r:id="rId17" sheetId="15"/>
+    <sheet name="GOA_Spiny dogfish" r:id="rId18" sheetId="16"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="40">
   <si>
     <t>YEAR</t>
   </si>
@@ -79,6 +85,69 @@
   <si>
     <t>14</t>
   </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
 </sst>
 </file>
 
@@ -157,13 +226,13 @@
         <v>220910.51048170237</v>
       </c>
       <c r="D2" t="n">
-        <v>3.150637460829448E9</v>
+        <v>3.1506374608294487E9</v>
       </c>
       <c r="E2" t="n">
-        <v>56130.53946675952</v>
+        <v>56130.539466759525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25408722900673714</v>
+        <v>0.2540872290067372</v>
       </c>
     </row>
     <row r="3">
@@ -177,13 +246,13 @@
         <v>241438.2484739793</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0082898129882994E9</v>
+        <v>3.008289812988299E9</v>
       </c>
       <c r="E3" t="n">
-        <v>54847.878837638746</v>
+        <v>54847.87883763874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2271714576472746</v>
+        <v>0.22717145764727456</v>
       </c>
     </row>
     <row r="4">
@@ -277,13 +346,13 @@
         <v>673155.0614927592</v>
       </c>
       <c r="D8" t="n">
-        <v>4.928534291524823E10</v>
+        <v>4.928534291524824E10</v>
       </c>
       <c r="E8" t="n">
-        <v>222003.02456328884</v>
+        <v>222003.02456328887</v>
       </c>
       <c r="F8" t="n">
-        <v>0.32979477874085156</v>
+        <v>0.3297947787408516</v>
       </c>
     </row>
     <row r="9">
@@ -317,13 +386,13 @@
         <v>764901.4061271069</v>
       </c>
       <c r="D10" t="n">
-        <v>2.1499806471418045E10</v>
+        <v>2.149980647141804E10</v>
       </c>
       <c r="E10" t="n">
-        <v>146628.12305767965</v>
+        <v>146628.12305767962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1916954549738582</v>
+        <v>0.19169545497385818</v>
       </c>
     </row>
     <row r="11">
@@ -357,7 +426,7 @@
         <v>649449.1861424028</v>
       </c>
       <c r="D12" t="n">
-        <v>1.3867565648217043E10</v>
+        <v>1.386756564821704E10</v>
       </c>
       <c r="E12" t="n">
         <v>117760.62859978729</v>
@@ -377,13 +446,13 @@
         <v>778669.2520543064</v>
       </c>
       <c r="D13" t="n">
-        <v>1.8361868451904293E10</v>
+        <v>1.8361868451904297E10</v>
       </c>
       <c r="E13" t="n">
-        <v>135505.97201564323</v>
+        <v>135505.97201564326</v>
       </c>
       <c r="F13" t="n">
-        <v>0.174022502696938</v>
+        <v>0.17402250269693803</v>
       </c>
     </row>
     <row r="14">
@@ -465,16 +534,16 @@
         <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>10143.685565028276</v>
+        <v>68633.7891577465</v>
       </c>
       <c r="D2" t="n">
-        <v>4364642.309030054</v>
+        <v>3.781212190838004E7</v>
       </c>
       <c r="E2" t="n">
-        <v>2089.1726374404902</v>
+        <v>6149.156194827062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.20595794536881099</v>
+        <v>0.08959371572351872</v>
       </c>
     </row>
     <row r="3">
@@ -485,16 +554,16 @@
         <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>10107.737806861096</v>
+        <v>63394.41607893733</v>
       </c>
       <c r="D3" t="n">
-        <v>7409516.467172128</v>
+        <v>5.458865352012821E7</v>
       </c>
       <c r="E3" t="n">
-        <v>2722.042701202927</v>
+        <v>7388.413464345929</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2693028601667145</v>
+        <v>0.11654675476695045</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +574,16 @@
         <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>18947.43725132607</v>
+        <v>96596.8190505549</v>
       </c>
       <c r="D4" t="n">
-        <v>5.136702452126841E7</v>
+        <v>1.5313196731019202E8</v>
       </c>
       <c r="E4" t="n">
-        <v>7167.079218291676</v>
+        <v>12374.650189407055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.37826114018612594</v>
+        <v>0.12810618725375067</v>
       </c>
     </row>
     <row r="5">
@@ -525,16 +594,16 @@
         <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>33644.86722467456</v>
+        <v>85549.05085398392</v>
       </c>
       <c r="D5" t="n">
-        <v>4.6952958585466266E7</v>
+        <v>4.148786820351742E7</v>
       </c>
       <c r="E5" t="n">
-        <v>6852.222893737933</v>
+        <v>6441.107684514941</v>
       </c>
       <c r="F5" t="n">
-        <v>0.20366324669911706</v>
+        <v>0.0752913985627812</v>
       </c>
     </row>
     <row r="6">
@@ -545,16 +614,16 @@
         <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>28478.017622880838</v>
+        <v>79530.24950163432</v>
       </c>
       <c r="D6" t="n">
-        <v>4.3894777724488395E8</v>
+        <v>3.1628340545021616E7</v>
       </c>
       <c r="E6" t="n">
-        <v>20951.080574635856</v>
+        <v>5623.907942438391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7356930827166348</v>
+        <v>0.07071407392381966</v>
       </c>
     </row>
     <row r="7">
@@ -565,16 +634,16 @@
         <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>31743.011225667586</v>
+        <v>74245.21680594703</v>
       </c>
       <c r="D7" t="n">
-        <v>1.9173477205912147E7</v>
+        <v>2.7413205957390133E7</v>
       </c>
       <c r="E7" t="n">
-        <v>4378.7529281648385</v>
+        <v>5235.762213602728</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1379438420959935</v>
+        <v>0.07051985890602644</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +654,16 @@
         <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>31774.350132903863</v>
+        <v>32423.90797904045</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0401436054714054E8</v>
+        <v>1.4122295718716972E7</v>
       </c>
       <c r="E8" t="n">
-        <v>14283.359567942709</v>
+        <v>3757.9643051414114</v>
       </c>
       <c r="F8" t="n">
-        <v>0.44952483711544444</v>
+        <v>0.11590102919027048</v>
       </c>
     </row>
     <row r="9">
@@ -605,16 +674,16 @@
         <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>98743.83495661836</v>
+        <v>99296.62617433087</v>
       </c>
       <c r="D9" t="n">
-        <v>4.660307721941669E8</v>
+        <v>1.1118576120922644E8</v>
       </c>
       <c r="E9" t="n">
-        <v>21587.7458803407</v>
+        <v>10544.46590440817</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2186237337229707</v>
+        <v>0.10619158284286215</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +694,16 @@
         <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>47938.65402124136</v>
+        <v>80560.47717498823</v>
       </c>
       <c r="D10" t="n">
-        <v>6.658605607751783E7</v>
+        <v>4.620545637460832E7</v>
       </c>
       <c r="E10" t="n">
-        <v>8160.027945878484</v>
+        <v>6797.459552995392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17021812799046923</v>
+        <v>0.08437710141947635</v>
       </c>
     </row>
     <row r="11">
@@ -645,16 +714,16 @@
         <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>162759.33153332936</v>
+        <v>71468.5091960996</v>
       </c>
       <c r="D11" t="n">
-        <v>3.2207903665539465E9</v>
+        <v>5.056779960558433E7</v>
       </c>
       <c r="E11" t="n">
-        <v>56752.007599325916</v>
+        <v>7111.103965319613</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3486866594048674</v>
+        <v>0.09949982230366296</v>
       </c>
     </row>
     <row r="12">
@@ -665,16 +734,16 @@
         <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>27879.796529626383</v>
+        <v>76276.93110273265</v>
       </c>
       <c r="D12" t="n">
-        <v>1.1106615728569224E7</v>
+        <v>4.1433952986025654E7</v>
       </c>
       <c r="E12" t="n">
-        <v>3332.658957734683</v>
+        <v>6436.9210796797615</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11953670300976706</v>
+        <v>0.08438883141496967</v>
       </c>
     </row>
     <row r="13">
@@ -685,16 +754,16 @@
         <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>41093.02125188747</v>
+        <v>77530.87007075697</v>
       </c>
       <c r="D13" t="n">
-        <v>8.010237394661187E7</v>
+        <v>5.472765854450502E7</v>
       </c>
       <c r="E13" t="n">
-        <v>8949.992957908507</v>
+        <v>7397.814443773582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.21779836783106862</v>
+        <v>0.09541766314530092</v>
       </c>
     </row>
     <row r="14">
@@ -705,16 +774,16 @@
         <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>160384.11017958124</v>
+        <v>82738.89311549942</v>
       </c>
       <c r="D14" t="n">
-        <v>4.205337615836806E9</v>
+        <v>3.200149172776994E8</v>
       </c>
       <c r="E14" t="n">
-        <v>64848.57450890348</v>
+        <v>17888.960765726428</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4043329132561379</v>
+        <v>0.21620981490233765</v>
       </c>
     </row>
     <row r="15">
@@ -725,10 +794,2296 @@
         <v>2015.0</v>
       </c>
       <c r="C15" t="n">
+        <v>53067.00075185715</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.4956950153002646E7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4995.693160413542</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09413935382882385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27607.26098099168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.63870902418494E7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6032.171270931338</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.21849944748537878</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28135.448866254927</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9458763919439044E7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4411.208895466076</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.15678473503071735</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22316.209625023403</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.1067899516477402E7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5573.8585841836175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.24976726235505473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39707.88591302294</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.0551143753639035E7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7109.932753102454</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1790559378727997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43063.85711407673</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.7619096019248925E7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7590.724340881371</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.176266708315826</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>54650.40122964112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.473976859722426E7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8046.102696164415</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.14722861159526848</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39082.269256227046</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.3147045221041895E7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7290.202001388021</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1865347673031156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>55396.712638026154</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.238689065300226E7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9076.722462045553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1638494782416924</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39319.86281069215</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.034092227196407E7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6351.450406951476</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.16153287302987085</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39629.54527380366</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.9199359614076205E7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7694.112009457375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1941509032288447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>44349.291792831245</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.118320302631646E7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7154.243707500916</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1613158501136956</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>67882.7439925255</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.181668838650324E8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24862.962089522487</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.36626336278127064</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>38233.60674072062</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.57496800278743E7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9785.176545564946</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2559312965664645</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>58005.59006429978</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.766696315547307E7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9882.659720716538</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.17037426409698633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>96046.22343414213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.100537997472533E9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55682.47477862791</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5797466343568292</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>489328.247886811</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4251922185486778E10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>119381.41474068222</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.24397000429923463</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1119578.1102116606</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.064996720495623E11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>898053.2679354617</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8021354291802661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>708298.7534878738</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0470463010159054E10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>102325.28040596348</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.14446627203857604</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>686007.1910861329</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.943568881471019E10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>222341.37899795035</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3241093998532646</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>461997.08226931136</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.0057614775514145E10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>141624.90873964984</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3065493575067485</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>512896.8249749221</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.096479969970902E10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>144792.26394980162</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2823029055734186</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>836194.9252381887</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.824343047964828E10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>168057.81885901137</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2009792379583509</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1157083.8697826166</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.6547193927406136E10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>191173.20399942598</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.16521983323070785</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>741648.47638534</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.225438100701579E10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>205558.70452747992</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.27716460165783086</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>930251.3348103752</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0816679383403786E11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>328887.2053364768</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.35354660942627725</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>276876.2175119125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.5013975740895233E9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50013.97378822766</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.18063658279381045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>723927.573270405</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.097458850823993E10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>175995.99003454574</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.24311270427160103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>448165.610178224</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.9169404206104855E10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>138453.61752624906</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.30893405112273026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2626.389691987402</v>
+      </c>
+      <c r="D2" t="n">
+        <v>682860.1566988972</v>
+      </c>
+      <c r="E2" t="n">
+        <v>826.3535300940496</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3146347751116643</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72442.38055867594</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.529916182987597E8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21283.5997495433</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2938003912268494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17664.16611885209</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.09229333554034E7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8995.71750086692</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5092636380534395</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9280.331816088936</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92803175129331E7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4390.935835665684</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4731442714206938</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20026.180696345502</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.6449094043000484E8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12825.402154708634</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6404317602631584</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9876.455798164</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.7587023729982942E7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4193.68855901138</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4246147246253026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8364.758885037541</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.7384056647100657E7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4169.419221798242</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4984506163418875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3544.5060077191006</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2504457.859749455</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1582.5479012495814</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.44647911381816374</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33123.830545008124</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.5482684441757476E8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21326.669792013352</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6438467242801227</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4057.039664395374</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3373252.395738241</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1836.6416078642671</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4527048685233853</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2686.073583699452</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1328628.8173469931</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1152.6616230910931</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4291251103789813</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3734.52297336727</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5241254.955368459</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2289.378726940665</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6130311001612138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7485.280399424959</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.813682137519677E7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5304.415271752087</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7086461680392879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2316.3737919079676</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1214862.6850282152</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1102.2080951563617</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.47583343370867914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1113688.2366634742</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.271037700006614E9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>72601.9125092901</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06519051752472481</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>932527.5986748552</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.477530649940076E9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74010.34150671159</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07936530952207968</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1907176.4078061914</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.968620909823026E10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>244307.61162565168</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.12809911585823183</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1551656.8743111603</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0021763081454073E10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100108.7562676416</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0645173284925404</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1639631.8565418106</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.314061298067534E10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>114632.51275565471</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06991356766965304</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1262150.7668057687</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.86272475434545E9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99311.25190201486</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07868414337959816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1360737.9511147256</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.3012755190305473E10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>151699.5556694398</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1114832988564525</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2819095.0589319686</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.3738256480672762E11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>370651.5409474614</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.13147890837277584</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1899587.2172002746</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.5826192714307724E10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>125802.19677854487</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06622607040068404</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1936020.0922576024</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.2525944700190365E10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>150086.45741768432</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07752319204635308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1772029.3527047152</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.5409008475328747E10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>159402.03410034877</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.08995451111294936</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1747338.8200396465</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.2328164491159664E10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>179800.34619310292</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1028995316369285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1290727.177071432</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.6990783870255583E10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>130348.70106853993</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1009885771246344</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1659129.0751294277</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.795212894694677E10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>133985.55499361403</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08075655896944721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10143.685565028276</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4364642.309030054</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2089.1726374404902</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.20595794536881099</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10107.737806861096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7409516.467172128</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2722.042701202927</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2693028601667145</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18947.43725132607</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.136702452126841E7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7167.079218291676</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.37826114018612594</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33644.86722467456</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.6952958585466266E7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6852.222893737933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.20366324669911706</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28478.017622880838</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.3894777724488395E8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20951.080574635856</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7356930827166348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31743.011225667586</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.9173477205912147E7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4378.7529281648385</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1379438420959935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31774.350132903863</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.0401436054714054E8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14283.359567942709</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.44952483711544444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>98743.83495661836</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.660307721941669E8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21587.7458803407</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2186237337229707</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>47938.65402124136</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.658605607751782E7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8160.0279458784835</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1702181279904692</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>162759.33153332936</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.2207903665539455E9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>56752.00759932591</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3486866594048674</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27879.796529626383</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.1106615728569226E7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3332.6589577346836</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.11953670300976707</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41093.02125188747</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.010237394661187E7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8949.992957908507</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.21779836783106862</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>160384.11017958124</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.2053376158368053E9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>64848.574508903475</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.40433291325613785</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="C15" t="n">
         <v>51916.36451120836</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7425590090155488E8</v>
+        <v>1.7425590090155485E8</v>
       </c>
       <c r="E15" t="n">
         <v>13200.602293136282</v>
@@ -773,19 +3128,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>708509.0060716673</v>
+        <v>86493.83848399445</v>
       </c>
       <c r="D2" t="n">
-        <v>9.326491066895475E9</v>
+        <v>2.230675183021993E9</v>
       </c>
       <c r="E2" t="n">
-        <v>96573.75972227381</v>
+        <v>47230.024169187054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13630562052799813</v>
+        <v>0.5460507360640133</v>
       </c>
     </row>
     <row r="3">
@@ -793,19 +3148,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>736580.8979620206</v>
+        <v>231883.47708930814</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0527820297510235E10</v>
+        <v>6.604324719980504E9</v>
       </c>
       <c r="E3" t="n">
-        <v>143275.33038702176</v>
+        <v>81266.99649907398</v>
       </c>
       <c r="F3" t="n">
-        <v>0.19451404561730745</v>
+        <v>0.35046480033493127</v>
       </c>
     </row>
     <row r="4">
@@ -813,19 +3168,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C4" t="n">
-        <v>843141.0383230133</v>
+        <v>224439.56188080562</v>
       </c>
       <c r="D4" t="n">
-        <v>9.438866874863749E9</v>
+        <v>1.9729390531752887E9</v>
       </c>
       <c r="E4" t="n">
-        <v>97153.83098397999</v>
+        <v>44417.778570920105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115228445263697</v>
+        <v>0.19790529886397348</v>
       </c>
     </row>
     <row r="5">
@@ -833,19 +3188,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C5" t="n">
-        <v>760278.9987515365</v>
+        <v>344285.5836115646</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4575551411254816E10</v>
+        <v>5.009339322731123E9</v>
       </c>
       <c r="E5" t="n">
-        <v>120729.24836697534</v>
+        <v>70776.68629380105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1587959795880543</v>
+        <v>0.20557551539437635</v>
       </c>
     </row>
     <row r="6">
@@ -853,19 +3208,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>735200.011085563</v>
+        <v>387916.0732734337</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0644023148671942E10</v>
+        <v>7.938119300519457E9</v>
       </c>
       <c r="E6" t="n">
-        <v>103169.87519945898</v>
+        <v>89096.12393656335</v>
       </c>
       <c r="F6" t="n">
-        <v>0.14032899026636714</v>
+        <v>0.2296788663195232</v>
       </c>
     </row>
     <row r="7">
@@ -873,19 +3228,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C7" t="n">
-        <v>633804.68411646</v>
+        <v>577983.8649743537</v>
       </c>
       <c r="D7" t="n">
-        <v>5.399064178818747E10</v>
+        <v>7.193470000363112E9</v>
       </c>
       <c r="E7" t="n">
-        <v>232358.86423415714</v>
+        <v>84814.3266221168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.366609572408054</v>
+        <v>0.14674168564529078</v>
       </c>
     </row>
     <row r="8">
@@ -893,19 +3248,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>210814.59662565694</v>
+        <v>511770.2287077856</v>
       </c>
       <c r="D8" t="n">
-        <v>3.8568382823477955E9</v>
+        <v>8.11963760857017E9</v>
       </c>
       <c r="E8" t="n">
-        <v>62103.448232346935</v>
+        <v>90109.03178133794</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2945879897615624</v>
+        <v>0.17607321943846224</v>
       </c>
     </row>
     <row r="9">
@@ -913,19 +3268,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C9" t="n">
-        <v>423312.16562475264</v>
+        <v>463170.62178870296</v>
       </c>
       <c r="D9" t="n">
-        <v>2.593856185531084E9</v>
+        <v>6.103258522548132E9</v>
       </c>
       <c r="E9" t="n">
-        <v>50929.914446532144</v>
+        <v>78123.35452697951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12031290046050612</v>
+        <v>0.1686707896655396</v>
       </c>
     </row>
     <row r="10">
@@ -933,19 +3288,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C10" t="n">
-        <v>380867.0450862938</v>
+        <v>577435.692054061</v>
       </c>
       <c r="D10" t="n">
-        <v>3.3818143858263865E9</v>
+        <v>5.287407062188605E9</v>
       </c>
       <c r="E10" t="n">
-        <v>58153.36951395324</v>
+        <v>72714.55880488173</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15268679783197658</v>
+        <v>0.125926678598998</v>
       </c>
     </row>
     <row r="11">
@@ -953,19 +3308,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C11" t="n">
-        <v>315440.9992799005</v>
+        <v>664384.2609664549</v>
       </c>
       <c r="D11" t="n">
-        <v>1.9381769609686487E9</v>
+        <v>8.700425765436842E9</v>
       </c>
       <c r="E11" t="n">
-        <v>44024.731242435184</v>
+        <v>93276.0728452739</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13956565995839584</v>
+        <v>0.14039476598917122</v>
       </c>
     </row>
     <row r="12">
@@ -973,19 +3328,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C12" t="n">
-        <v>703631.1781655853</v>
+        <v>972045.8942124766</v>
       </c>
       <c r="D12" t="n">
-        <v>1.150747592356011E10</v>
+        <v>1.3290804311996729E10</v>
       </c>
       <c r="E12" t="n">
-        <v>107272.9039578966</v>
+        <v>115285.7506893056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15245615499524115</v>
+        <v>0.11860113948910486</v>
       </c>
     </row>
     <row r="13">
@@ -993,19 +3348,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C13" t="n">
-        <v>708092.0913586462</v>
+        <v>902398.2019157237</v>
       </c>
       <c r="D13" t="n">
-        <v>9.741811348085243E9</v>
+        <v>2.4028274987682667E10</v>
       </c>
       <c r="E13" t="n">
-        <v>98700.61473002711</v>
+        <v>155010.5641163939</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13938951717515455</v>
+        <v>0.17177623336052544</v>
       </c>
     </row>
     <row r="14">
@@ -1013,19 +3368,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1014845.8453090078</v>
+        <v>970967.851227638</v>
       </c>
       <c r="D14" t="n">
-        <v>4.212799917051188E10</v>
+        <v>3.4381558090013E10</v>
       </c>
       <c r="E14" t="n">
-        <v>205251.06375001295</v>
+        <v>185422.64718748088</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2022485136030848</v>
+        <v>0.19096682444536422</v>
       </c>
     </row>
     <row r="15">
@@ -1033,19 +3388,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C15" t="n">
-        <v>745321.8771668447</v>
+        <v>982502.9328853906</v>
       </c>
       <c r="D15" t="n">
-        <v>1.3106395576660637E10</v>
+        <v>1.1298496440692059E10</v>
       </c>
       <c r="E15" t="n">
-        <v>114483.16721972989</v>
+        <v>106294.38574398958</v>
       </c>
       <c r="F15" t="n">
-        <v>0.15360231696795096</v>
+        <v>0.10818734701567437</v>
       </c>
     </row>
   </sheetData>
@@ -1087,16 +3442,16 @@
         <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>551899.0467176073</v>
+        <v>708509.0060716673</v>
       </c>
       <c r="D2" t="n">
-        <v>6.462918138214294E9</v>
+        <v>9.326491066895477E9</v>
       </c>
       <c r="E2" t="n">
-        <v>80392.27660798203</v>
+        <v>96573.75972227383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1456648223730611</v>
+        <v>0.13630562052799816</v>
       </c>
     </row>
     <row r="3">
@@ -1107,16 +3462,16 @@
         <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>395315.3362031072</v>
+        <v>736580.8979620206</v>
       </c>
       <c r="D3" t="n">
-        <v>2.63502334171906E9</v>
+        <v>2.0527820297510235E10</v>
       </c>
       <c r="E3" t="n">
-        <v>51332.47842953874</v>
+        <v>143275.33038702176</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12985197822723699</v>
+        <v>0.19451404561730745</v>
       </c>
     </row>
     <row r="4">
@@ -1127,16 +3482,16 @@
         <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>416788.3566737968</v>
+        <v>843141.0383230133</v>
       </c>
       <c r="D4" t="n">
-        <v>4.058397072472866E9</v>
+        <v>9.438866874863749E9</v>
       </c>
       <c r="E4" t="n">
-        <v>63705.54977765176</v>
+        <v>97153.83098397999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.15284867908992836</v>
+        <v>0.115228445263697</v>
       </c>
     </row>
     <row r="5">
@@ -1147,16 +3502,16 @@
         <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>409847.76116744353</v>
+        <v>760278.9987515365</v>
       </c>
       <c r="D5" t="n">
-        <v>5.392063267658283E9</v>
+        <v>1.4575551411254816E10</v>
       </c>
       <c r="E5" t="n">
-        <v>73430.66980259871</v>
+        <v>120729.24836697534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17916572142161483</v>
+        <v>0.1587959795880543</v>
       </c>
     </row>
     <row r="6">
@@ -1167,16 +3522,16 @@
         <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>538153.1345277763</v>
+        <v>735200.011085563</v>
       </c>
       <c r="D6" t="n">
-        <v>1.160704333377649E10</v>
+        <v>1.064402314867194E10</v>
       </c>
       <c r="E6" t="n">
-        <v>107735.989036981</v>
+        <v>103169.87519945897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.20019578466548968</v>
+        <v>0.1403289902663671</v>
       </c>
     </row>
     <row r="7">
@@ -1187,16 +3542,16 @@
         <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>306413.04804224975</v>
+        <v>633804.68411646</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4976010089251113E9</v>
+        <v>5.3990641788187485E10</v>
       </c>
       <c r="E7" t="n">
-        <v>38698.85022743068</v>
+        <v>232358.86423415717</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12629635217784424</v>
+        <v>0.36660957240805403</v>
       </c>
     </row>
     <row r="8">
@@ -1207,16 +3562,16 @@
         <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>257613.79693569324</v>
+        <v>210814.59662565694</v>
       </c>
       <c r="D8" t="n">
-        <v>2.7517076842751045E9</v>
+        <v>3.8568382823477955E9</v>
       </c>
       <c r="E8" t="n">
-        <v>52456.722012294136</v>
+        <v>62103.448232346935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2036254371321138</v>
+        <v>0.2945879897615624</v>
       </c>
     </row>
     <row r="9">
@@ -1227,16 +3582,16 @@
         <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>297401.8904798641</v>
+        <v>423312.16562475264</v>
       </c>
       <c r="D9" t="n">
-        <v>1.9845933266584432E9</v>
+        <v>2.593856185531085E9</v>
       </c>
       <c r="E9" t="n">
-        <v>44548.77469312084</v>
+        <v>50929.91444653216</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14979317926069827</v>
+        <v>0.12031290046050615</v>
       </c>
     </row>
     <row r="10">
@@ -1247,16 +3602,16 @@
         <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>308174.7369218584</v>
+        <v>380867.0450862938</v>
       </c>
       <c r="D10" t="n">
-        <v>6.538735664816145E9</v>
+        <v>3.3818143858263865E9</v>
       </c>
       <c r="E10" t="n">
-        <v>80862.44904043004</v>
+        <v>58153.36951395324</v>
       </c>
       <c r="F10" t="n">
-        <v>0.26239155697221783</v>
+        <v>0.15268679783197658</v>
       </c>
     </row>
     <row r="11">
@@ -1267,16 +3622,16 @@
         <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>232035.09531233064</v>
+        <v>315440.9992799005</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0466588897086364E9</v>
+        <v>1.9381769609686484E9</v>
       </c>
       <c r="E11" t="n">
-        <v>32352.10796391228</v>
+        <v>44024.73124243518</v>
       </c>
       <c r="F11" t="n">
-        <v>0.13942764959914686</v>
+        <v>0.13956565995839582</v>
       </c>
     </row>
     <row r="12">
@@ -1287,16 +3642,16 @@
         <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>752650.9752031266</v>
+        <v>703631.1781655853</v>
       </c>
       <c r="D12" t="n">
-        <v>5.200596577357349E10</v>
+        <v>1.1507475923560108E10</v>
       </c>
       <c r="E12" t="n">
-        <v>228048.1654685551</v>
+        <v>107272.9039578966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3029932504996876</v>
+        <v>0.15245615499524115</v>
       </c>
     </row>
     <row r="13">
@@ -1307,16 +3662,16 @@
         <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>500975.2889374542</v>
+        <v>708092.0913586462</v>
       </c>
       <c r="D13" t="n">
-        <v>4.642992280216462E9</v>
+        <v>9.741811348085243E9</v>
       </c>
       <c r="E13" t="n">
-        <v>68139.50601682156</v>
+        <v>98700.61473002711</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13601370670665683</v>
+        <v>0.13938951717515455</v>
       </c>
     </row>
     <row r="14">
@@ -1327,16 +3682,16 @@
         <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>506361.96764853655</v>
+        <v>1014845.8453090078</v>
       </c>
       <c r="D14" t="n">
-        <v>5.64036165441914E9</v>
+        <v>4.212799917051187E10</v>
       </c>
       <c r="E14" t="n">
-        <v>75102.34120464648</v>
+        <v>205251.06375001292</v>
       </c>
       <c r="F14" t="n">
-        <v>0.14831750013416226</v>
+        <v>0.20224851360308477</v>
       </c>
     </row>
     <row r="15">
@@ -1347,16 +3702,16 @@
         <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>253694.5467629023</v>
+        <v>745321.8771668447</v>
       </c>
       <c r="D15" t="n">
-        <v>7.147353784615836E8</v>
+        <v>1.3106395576660637E10</v>
       </c>
       <c r="E15" t="n">
-        <v>26734.535314113535</v>
+        <v>114483.16721972989</v>
       </c>
       <c r="F15" t="n">
-        <v>0.10538080402295395</v>
+        <v>0.15360231696795096</v>
       </c>
     </row>
   </sheetData>
@@ -1395,19 +3750,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39506.2652189262</v>
+        <v>281486.6843969809</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2830973134799331E8</v>
+        <v>8.767075823549084E9</v>
       </c>
       <c r="E2" t="n">
-        <v>11327.388549352112</v>
+        <v>93632.66429803803</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28672385219358876</v>
+        <v>0.3326362115445141</v>
       </c>
     </row>
     <row r="3">
@@ -1415,19 +3770,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>136694.7292276805</v>
+        <v>570576.7256794807</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5338936399278574E9</v>
+        <v>9.387650159661964E9</v>
       </c>
       <c r="E3" t="n">
-        <v>39164.95423114723</v>
+        <v>96889.88677701076</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2865140042518653</v>
+        <v>0.16981044339239013</v>
       </c>
     </row>
     <row r="4">
@@ -1435,19 +3790,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C4" t="n">
-        <v>107076.07709051284</v>
+        <v>483266.38957178587</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0686461381030037E9</v>
+        <v>1.0989200442173925E10</v>
       </c>
       <c r="E4" t="n">
-        <v>45482.37172908866</v>
+        <v>104829.38730229193</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4247668850497932</v>
+        <v>0.2169184316649446</v>
       </c>
     </row>
     <row r="5">
@@ -1455,19 +3810,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C5" t="n">
-        <v>104479.59271794511</v>
+        <v>189535.91142676005</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3523640469766796E9</v>
+        <v>1.4275193670535293E9</v>
       </c>
       <c r="E5" t="n">
-        <v>36774.502674770185</v>
+        <v>37782.527271921994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3519778524984038</v>
+        <v>0.1993423145382231</v>
       </c>
     </row>
     <row r="6">
@@ -1475,19 +3830,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>98965.05256508115</v>
+        <v>118436.70315654794</v>
       </c>
       <c r="D6" t="n">
-        <v>7.073345677402058E8</v>
+        <v>3.942856817498296E8</v>
       </c>
       <c r="E6" t="n">
-        <v>26595.76221393562</v>
+        <v>19856.628156608804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.26873892878949146</v>
+        <v>0.1676560359026762</v>
       </c>
     </row>
     <row r="7">
@@ -1495,19 +3850,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C7" t="n">
-        <v>242186.97242413822</v>
+        <v>158820.23520221567</v>
       </c>
       <c r="D7" t="n">
-        <v>2.164110293995178E10</v>
+        <v>1.9485090333476043E9</v>
       </c>
       <c r="E7" t="n">
-        <v>147109.15314810217</v>
+        <v>44141.91923045037</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6074197619947626</v>
+        <v>0.2779363673290578</v>
       </c>
     </row>
     <row r="8">
@@ -1515,19 +3870,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>343613.6499993552</v>
+        <v>128061.39497813983</v>
       </c>
       <c r="D8" t="n">
-        <v>4.2219837390680855E10</v>
+        <v>9.44091445232094E8</v>
       </c>
       <c r="E8" t="n">
-        <v>205474.66362225992</v>
+        <v>30726.071099834648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5979816681399167</v>
+        <v>0.2399323473329305</v>
       </c>
     </row>
     <row r="9">
@@ -1535,19 +3890,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C9" t="n">
-        <v>66309.94663482861</v>
+        <v>357287.3748824814</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0211506760139351E9</v>
+        <v>7.466049117047334E9</v>
       </c>
       <c r="E9" t="n">
-        <v>31955.448299373536</v>
+        <v>86406.3025308185</v>
       </c>
       <c r="F9" t="n">
-        <v>0.48191033051728127</v>
+        <v>0.24183978669618308</v>
       </c>
     </row>
     <row r="10">
@@ -1555,19 +3910,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C10" t="n">
-        <v>358998.6890254153</v>
+        <v>366065.7455203985</v>
       </c>
       <c r="D10" t="n">
-        <v>1.753825308539476E10</v>
+        <v>1.6497711936338093E10</v>
       </c>
       <c r="E10" t="n">
-        <v>132432.06970139357</v>
+        <v>128443.41920214555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36889290615771037</v>
+        <v>0.3508752752037768</v>
       </c>
     </row>
     <row r="11">
@@ -1575,19 +3930,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C11" t="n">
-        <v>221226.45728901695</v>
+        <v>113030.73498433766</v>
       </c>
       <c r="D11" t="n">
-        <v>7.153639777193719E9</v>
+        <v>2.1554578333571887E9</v>
       </c>
       <c r="E11" t="n">
-        <v>84579.1923418149</v>
+        <v>46426.90850527514</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3823195171964358</v>
+        <v>0.4107458782047943</v>
       </c>
     </row>
     <row r="12">
@@ -1595,19 +3950,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C12" t="n">
-        <v>89895.83939206997</v>
+        <v>251918.8435651116</v>
       </c>
       <c r="D12" t="n">
-        <v>8.344894648233006E8</v>
+        <v>3.5416002765438895E9</v>
       </c>
       <c r="E12" t="n">
-        <v>28887.531303718228</v>
+        <v>59511.34577997619</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3213444748841902</v>
+        <v>0.23623221247677223</v>
       </c>
     </row>
     <row r="13">
@@ -1615,19 +3970,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C13" t="n">
-        <v>173641.94723582527</v>
+        <v>57517.60190195464</v>
       </c>
       <c r="D13" t="n">
-        <v>4.504728200893003E9</v>
+        <v>6.0401321126764E8</v>
       </c>
       <c r="E13" t="n">
-        <v>67117.27200127403</v>
+        <v>24576.68023284756</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3865268333470209</v>
+        <v>0.427289723843865</v>
       </c>
     </row>
     <row r="14">
@@ -1635,19 +3990,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C14" t="n">
-        <v>370454.0453848723</v>
+        <v>154484.2868411558</v>
       </c>
       <c r="D14" t="n">
-        <v>4.866998512803353E10</v>
+        <v>1.2224994587751808E9</v>
       </c>
       <c r="E14" t="n">
-        <v>220612.7492418186</v>
+        <v>34964.25973440852</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5955198815891442</v>
+        <v>0.22632890664381652</v>
       </c>
     </row>
     <row r="15">
@@ -1655,19 +4010,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C15" t="n">
-        <v>48933.384995211214</v>
+        <v>93117.06627976583</v>
       </c>
       <c r="D15" t="n">
-        <v>2.785285866116739E8</v>
+        <v>7.740947207302768E8</v>
       </c>
       <c r="E15" t="n">
-        <v>16689.175731942963</v>
+        <v>27822.557767579114</v>
       </c>
       <c r="F15" t="n">
-        <v>0.34105908948617025</v>
+        <v>0.29879117630260765</v>
       </c>
     </row>
   </sheetData>
@@ -1709,16 +4064,16 @@
         <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>68633.7891577465</v>
+        <v>551899.0467176073</v>
       </c>
       <c r="D2" t="n">
-        <v>3.781212190838004E7</v>
+        <v>6.462918138214294E9</v>
       </c>
       <c r="E2" t="n">
-        <v>6149.156194827062</v>
+        <v>80392.27660798203</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08959371572351872</v>
+        <v>0.1456648223730611</v>
       </c>
     </row>
     <row r="3">
@@ -1729,16 +4084,16 @@
         <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>63394.41607893733</v>
+        <v>395315.3362031072</v>
       </c>
       <c r="D3" t="n">
-        <v>5.458865352012821E7</v>
+        <v>2.63502334171906E9</v>
       </c>
       <c r="E3" t="n">
-        <v>7388.413464345929</v>
+        <v>51332.47842953874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11654675476695045</v>
+        <v>0.12985197822723699</v>
       </c>
     </row>
     <row r="4">
@@ -1749,16 +4104,16 @@
         <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>96596.8190505549</v>
+        <v>416788.3566737968</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5313196731019202E8</v>
+        <v>4.058397072472866E9</v>
       </c>
       <c r="E4" t="n">
-        <v>12374.650189407055</v>
+        <v>63705.54977765176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12810618725375067</v>
+        <v>0.15284867908992836</v>
       </c>
     </row>
     <row r="5">
@@ -1769,16 +4124,16 @@
         <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>85549.05085398392</v>
+        <v>409847.76116744353</v>
       </c>
       <c r="D5" t="n">
-        <v>4.148786820351742E7</v>
+        <v>5.392063267658283E9</v>
       </c>
       <c r="E5" t="n">
-        <v>6441.107684514941</v>
+        <v>73430.66980259871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0752913985627812</v>
+        <v>0.17916572142161483</v>
       </c>
     </row>
     <row r="6">
@@ -1789,16 +4144,16 @@
         <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>79530.24950163432</v>
+        <v>538153.1345277763</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1628340545021616E7</v>
+        <v>1.160704333377649E10</v>
       </c>
       <c r="E6" t="n">
-        <v>5623.907942438391</v>
+        <v>107735.989036981</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07071407392381966</v>
+        <v>0.20019578466548968</v>
       </c>
     </row>
     <row r="7">
@@ -1809,16 +4164,16 @@
         <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>74245.21680594703</v>
+        <v>306413.04804224975</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7413205957390133E7</v>
+        <v>1.497601008925111E9</v>
       </c>
       <c r="E7" t="n">
-        <v>5235.762213602728</v>
+        <v>38698.850227430674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07051985890602644</v>
+        <v>0.1262963521778442</v>
       </c>
     </row>
     <row r="8">
@@ -1829,16 +4184,16 @@
         <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>32423.90797904045</v>
+        <v>257613.79693569324</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4122295718716966E7</v>
+        <v>2.7517076842751045E9</v>
       </c>
       <c r="E8" t="n">
-        <v>3757.964305141411</v>
+        <v>52456.722012294136</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11590102919027047</v>
+        <v>0.2036254371321138</v>
       </c>
     </row>
     <row r="9">
@@ -1849,16 +4204,16 @@
         <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>99296.62617433087</v>
+        <v>297401.8904798641</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1118576120922641E8</v>
+        <v>1.984593326658443E9</v>
       </c>
       <c r="E9" t="n">
-        <v>10544.465904408169</v>
+        <v>44548.77469312083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.10619158284286213</v>
+        <v>0.14979317926069827</v>
       </c>
     </row>
     <row r="10">
@@ -1869,16 +4224,16 @@
         <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>80560.47717498823</v>
+        <v>308174.7369218584</v>
       </c>
       <c r="D10" t="n">
-        <v>4.620545637460832E7</v>
+        <v>6.538735664816144E9</v>
       </c>
       <c r="E10" t="n">
-        <v>6797.459552995392</v>
+        <v>80862.44904043004</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08437710141947635</v>
+        <v>0.26239155697221783</v>
       </c>
     </row>
     <row r="11">
@@ -1889,16 +4244,16 @@
         <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>71468.5091960996</v>
+        <v>232035.09531233064</v>
       </c>
       <c r="D11" t="n">
-        <v>5.056779960558433E7</v>
+        <v>1.0466588897086363E9</v>
       </c>
       <c r="E11" t="n">
-        <v>7111.103965319613</v>
+        <v>32352.10796391228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09949982230366296</v>
+        <v>0.13942764959914686</v>
       </c>
     </row>
     <row r="12">
@@ -1909,16 +4264,16 @@
         <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>76276.93110273265</v>
+        <v>752650.9752031266</v>
       </c>
       <c r="D12" t="n">
-        <v>4.143395298602565E7</v>
+        <v>5.200596577357346E10</v>
       </c>
       <c r="E12" t="n">
-        <v>6436.92107967976</v>
+        <v>228048.16546855506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08438883141496964</v>
+        <v>0.30299325049968756</v>
       </c>
     </row>
     <row r="13">
@@ -1929,16 +4284,16 @@
         <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>77530.87007075697</v>
+        <v>500975.2889374542</v>
       </c>
       <c r="D13" t="n">
-        <v>5.472765854450502E7</v>
+        <v>4.642992280216463E9</v>
       </c>
       <c r="E13" t="n">
-        <v>7397.814443773582</v>
+        <v>68139.50601682156</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09541766314530092</v>
+        <v>0.13601370670665683</v>
       </c>
     </row>
     <row r="14">
@@ -1949,16 +4304,16 @@
         <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>82738.89311549942</v>
+        <v>506361.96764853655</v>
       </c>
       <c r="D14" t="n">
-        <v>3.200149172776995E8</v>
+        <v>5.640361654419139E9</v>
       </c>
       <c r="E14" t="n">
-        <v>17888.960765726428</v>
+        <v>75102.34120464647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.21620981490233765</v>
+        <v>0.14831750013416223</v>
       </c>
     </row>
     <row r="15">
@@ -1969,16 +4324,16 @@
         <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>53067.00075185715</v>
+        <v>253694.5467629023</v>
       </c>
       <c r="D15" t="n">
-        <v>2.4956950153002646E7</v>
+        <v>7.147353784615836E8</v>
       </c>
       <c r="E15" t="n">
-        <v>4995.693160413542</v>
+        <v>26734.535314113535</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09413935382882385</v>
+        <v>0.10538080402295395</v>
       </c>
     </row>
   </sheetData>
@@ -2017,19 +4372,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1982.0</v>
       </c>
       <c r="C2" t="n">
-        <v>27607.26098099168</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63870902418494E7</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6032.171270931338</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.21849944748537878</v>
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
@@ -2037,19 +4392,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>28135.448866254927</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9458763919439044E7</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4411.208895466076</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.15678473503071735</v>
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
@@ -2057,19 +4412,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1984.0</v>
       </c>
       <c r="C4" t="n">
-        <v>22316.209625023403</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1067899516477402E7</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5573.8585841836175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.24976726235505473</v>
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
@@ -2077,19 +4432,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1985.0</v>
       </c>
       <c r="C5" t="n">
-        <v>39707.88591302294</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.0551143753639035E7</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>7109.932753102454</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1790559378727997</v>
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6">
@@ -2097,19 +4452,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C6" t="n">
-        <v>43063.85711407673</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.761909601924893E7</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>7590.724340881371</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.176266708315826</v>
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
@@ -2117,19 +4472,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1987.0</v>
       </c>
       <c r="C7" t="n">
-        <v>54650.40122964112</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.4739768597224265E7</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>8046.102696164416</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.14722861159526848</v>
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +4492,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>1988.0</v>
       </c>
       <c r="C8" t="n">
-        <v>39082.269256227046</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.3147045221041895E7</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>7290.202001388021</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1865347673031156</v>
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -2157,19 +4512,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>1989.0</v>
       </c>
       <c r="C9" t="n">
-        <v>55396.712638026154</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>8.238689065300226E7</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>9076.722462045553</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1638494782416924</v>
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10">
@@ -2177,19 +4532,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>1990.0</v>
       </c>
       <c r="C10" t="n">
-        <v>39319.86281069215</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.034092227196409E7</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>6351.450406951477</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.16153287302987088</v>
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11">
@@ -2197,19 +4552,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C11" t="n">
-        <v>39629.54527380366</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.919935961407621E7</v>
+        <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7694.112009457375</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1941509032288447</v>
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12">
@@ -2217,19 +4572,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>1992.0</v>
       </c>
       <c r="C12" t="n">
-        <v>44349.291792831245</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.1183203026316464E7</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>7154.243707500917</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.16131585011369562</v>
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13">
@@ -2237,19 +4592,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C13" t="n">
-        <v>67882.7439925255</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.181668838650324E8</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>24862.962089522487</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.36626336278127064</v>
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14">
@@ -2257,19 +4612,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C14" t="n">
-        <v>38233.60674072062</v>
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.574968002787429E7</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>9785.176545564944</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.25593129656646446</v>
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15">
@@ -2277,19 +4632,439 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
         <v>2015.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>58005.59006429978</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.766696315547307E7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9882.659720716538</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.17037426409698633</v>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -2328,19 +5103,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>45108.17515282947</v>
+        <v>146272.6377045942</v>
       </c>
       <c r="D2" t="n">
-        <v>7.069412941282454E8</v>
+        <v>8.907390934627414E8</v>
       </c>
       <c r="E2" t="n">
-        <v>26588.36764692871</v>
+        <v>29845.252444278998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.589435674505687</v>
+        <v>0.20403851952511556</v>
       </c>
     </row>
     <row r="3">
@@ -2348,19 +5123,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>28665.727627266857</v>
+        <v>215822.76010721733</v>
       </c>
       <c r="D3" t="n">
-        <v>6.852083078928688E8</v>
+        <v>9.600657119915833E8</v>
       </c>
       <c r="E3" t="n">
-        <v>26176.48387184323</v>
+        <v>30984.927174217843</v>
       </c>
       <c r="F3" t="n">
-        <v>0.913163070974837</v>
+        <v>0.14356654116936055</v>
       </c>
     </row>
     <row r="4">
@@ -2368,19 +5143,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C4" t="n">
-        <v>30255.638502414953</v>
+        <v>254697.33763241774</v>
       </c>
       <c r="D4" t="n">
-        <v>8.862602270666215E8</v>
+        <v>4.424261678090546E9</v>
       </c>
       <c r="E4" t="n">
-        <v>29770.123060992235</v>
+        <v>66515.12367943508</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9839528938916967</v>
+        <v>0.2611535884031521</v>
       </c>
     </row>
     <row r="5">
@@ -2388,19 +5163,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C5" t="n">
-        <v>21708.958320833484</v>
+        <v>188455.40641038126</v>
       </c>
       <c r="D5" t="n">
-        <v>1.777399130686163E8</v>
+        <v>6.512520704917269E8</v>
       </c>
       <c r="E5" t="n">
-        <v>13331.913331124542</v>
+        <v>25519.640877013273</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6141203614698673</v>
+        <v>0.13541474539309103</v>
       </c>
     </row>
     <row r="6">
@@ -2408,19 +5183,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>345946.920481071</v>
+        <v>184499.1323336066</v>
       </c>
       <c r="D6" t="n">
-        <v>1.172820263795839E11</v>
+        <v>1.1390395029914951E9</v>
       </c>
       <c r="E6" t="n">
-        <v>342464.63522469567</v>
+        <v>33749.659301858075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9899340475367352</v>
+        <v>0.18292584292934672</v>
       </c>
     </row>
     <row r="7">
@@ -2428,19 +5203,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4799.350080914099</v>
+        <v>83590.41205882984</v>
       </c>
       <c r="D7" t="n">
-        <v>3666935.3651250494</v>
+        <v>1.1033975102517268E8</v>
       </c>
       <c r="E7" t="n">
-        <v>1914.9243758240295</v>
+        <v>10504.272988892315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.39899660236064866</v>
+        <v>0.12566361057652814</v>
       </c>
     </row>
     <row r="8">
@@ -2448,19 +5223,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>221266.32647799153</v>
+        <v>136027.62366657282</v>
       </c>
       <c r="D8" t="n">
-        <v>4.880346291995075E10</v>
+        <v>5.56021471991911E8</v>
       </c>
       <c r="E8" t="n">
-        <v>220915.0581557327</v>
+        <v>23580.10754835336</v>
       </c>
       <c r="F8" t="n">
-        <v>0.998412463713525</v>
+        <v>0.17334793413837968</v>
       </c>
     </row>
     <row r="9">
@@ -2468,19 +5243,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C9" t="n">
-        <v>65532.20053583695</v>
+        <v>83152.53518582524</v>
       </c>
       <c r="D9" t="n">
-        <v>4.521438311097344E8</v>
+        <v>1.488715692716254E8</v>
       </c>
       <c r="E9" t="n">
-        <v>21263.67397957687</v>
+        <v>12201.293754009263</v>
       </c>
       <c r="F9" t="n">
-        <v>0.32447672755851703</v>
+        <v>0.14673387560273904</v>
       </c>
     </row>
     <row r="10">
@@ -2488,19 +5263,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C10" t="n">
-        <v>100912.19996582378</v>
+        <v>114183.61308515805</v>
       </c>
       <c r="D10" t="n">
-        <v>2.501229154943105E9</v>
+        <v>3.9878993236840636E8</v>
       </c>
       <c r="E10" t="n">
-        <v>50012.29003898047</v>
+        <v>19969.725395418096</v>
       </c>
       <c r="F10" t="n">
-        <v>0.49560201894239025</v>
+        <v>0.1748913426003142</v>
       </c>
     </row>
     <row r="11">
@@ -2508,19 +5283,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C11" t="n">
-        <v>82324.08317682959</v>
+        <v>92271.6827554874</v>
       </c>
       <c r="D11" t="n">
-        <v>1.4130501723288832E9</v>
+        <v>5.979804512262157E8</v>
       </c>
       <c r="E11" t="n">
-        <v>37590.55961712839</v>
+        <v>24453.63881360432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4566168023564262</v>
+        <v>0.2650178048492354</v>
       </c>
     </row>
     <row r="12">
@@ -2528,19 +5303,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C12" t="n">
-        <v>135623.10676221093</v>
+        <v>68575.67328894761</v>
       </c>
       <c r="D12" t="n">
-        <v>1.2748486854565176E10</v>
+        <v>1.199191169515322E8</v>
       </c>
       <c r="E12" t="n">
-        <v>112909.19738694973</v>
+        <v>10950.758738623192</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8325218326174634</v>
+        <v>0.1596886798687565</v>
       </c>
     </row>
     <row r="13">
@@ -2548,19 +5323,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C13" t="n">
-        <v>97233.6401931319</v>
+        <v>65858.42897655317</v>
       </c>
       <c r="D13" t="n">
-        <v>2.926010982413948E9</v>
+        <v>8.142238892108728E7</v>
       </c>
       <c r="E13" t="n">
-        <v>54092.61486020016</v>
+        <v>9023.435538700727</v>
       </c>
       <c r="F13" t="n">
-        <v>0.556315846581058</v>
+        <v>0.13701261446599702</v>
       </c>
     </row>
     <row r="14">
@@ -2568,19 +5343,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C14" t="n">
-        <v>105411.06923470329</v>
+        <v>86790.59850654732</v>
       </c>
       <c r="D14" t="n">
-        <v>4.955924053073063E9</v>
+        <v>1.965733549639212E8</v>
       </c>
       <c r="E14" t="n">
-        <v>70398.32422063086</v>
+        <v>14020.4620096458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6678456516163904</v>
+        <v>0.16154355714678154</v>
       </c>
     </row>
     <row r="15">
@@ -2588,19 +5363,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C15" t="n">
-        <v>28816.470659898405</v>
+        <v>95734.84376933085</v>
       </c>
       <c r="D15" t="n">
-        <v>3.2321393948403484E8</v>
+        <v>2.469083015430705E8</v>
       </c>
       <c r="E15" t="n">
-        <v>17978.151726026645</v>
+        <v>15713.316058142233</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6238845810859625</v>
+        <v>0.16413372017405511</v>
       </c>
     </row>
   </sheetData>
@@ -2642,16 +5417,16 @@
         <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2626.389691987402</v>
+        <v>39506.2652189262</v>
       </c>
       <c r="D2" t="n">
-        <v>682860.1566988971</v>
+        <v>1.2830973134799333E8</v>
       </c>
       <c r="E2" t="n">
-        <v>826.3535300940495</v>
+        <v>11327.388549352112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3146347751116643</v>
+        <v>0.28672385219358876</v>
       </c>
     </row>
     <row r="3">
@@ -2662,16 +5437,16 @@
         <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>72442.38055867594</v>
+        <v>136694.7292276805</v>
       </c>
       <c r="D3" t="n">
-        <v>4.5299161829875976E8</v>
+        <v>1.5338936399278576E9</v>
       </c>
       <c r="E3" t="n">
-        <v>21283.5997495433</v>
+        <v>39164.95423114724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2938003912268494</v>
+        <v>0.28651400425186535</v>
       </c>
     </row>
     <row r="4">
@@ -2682,16 +5457,16 @@
         <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>17664.16611885209</v>
+        <v>107076.07709051284</v>
       </c>
       <c r="D4" t="n">
-        <v>8.09229333554034E7</v>
+        <v>2.0686461381030037E9</v>
       </c>
       <c r="E4" t="n">
-        <v>8995.71750086692</v>
+        <v>45482.37172908866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5092636380534395</v>
+        <v>0.4247668850497932</v>
       </c>
     </row>
     <row r="5">
@@ -2702,16 +5477,16 @@
         <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9280.331816088936</v>
+        <v>104479.59271794511</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9280317512933105E7</v>
+        <v>1.3523640469766798E9</v>
       </c>
       <c r="E5" t="n">
-        <v>4390.935835665685</v>
+        <v>36774.50267477019</v>
       </c>
       <c r="F5" t="n">
-        <v>0.47314427142069393</v>
+        <v>0.35197785249840385</v>
       </c>
     </row>
     <row r="6">
@@ -2722,16 +5497,16 @@
         <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>20026.180696345502</v>
+        <v>98965.05256508115</v>
       </c>
       <c r="D6" t="n">
-        <v>1.6449094043000478E8</v>
+        <v>7.073345677402056E8</v>
       </c>
       <c r="E6" t="n">
-        <v>12825.402154708632</v>
+        <v>26595.762213935617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6404317602631584</v>
+        <v>0.2687389287894914</v>
       </c>
     </row>
     <row r="7">
@@ -2742,16 +5517,16 @@
         <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>9876.455798164</v>
+        <v>242186.97242413822</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7587023729982942E7</v>
+        <v>2.164110293995178E10</v>
       </c>
       <c r="E7" t="n">
-        <v>4193.68855901138</v>
+        <v>147109.15314810217</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4246147246253026</v>
+        <v>0.6074197619947626</v>
       </c>
     </row>
     <row r="8">
@@ -2762,16 +5537,16 @@
         <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>8364.758885037541</v>
+        <v>343613.6499993552</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7384056647100653E7</v>
+        <v>4.221983739068083E10</v>
       </c>
       <c r="E8" t="n">
-        <v>4169.419221798242</v>
+        <v>205474.66362225986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4984506163418875</v>
+        <v>0.5979816681399166</v>
       </c>
     </row>
     <row r="9">
@@ -2782,16 +5557,16 @@
         <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3544.5060077191006</v>
+        <v>66309.94663482861</v>
       </c>
       <c r="D9" t="n">
-        <v>2504457.8597494573</v>
+        <v>1.021150676013936E9</v>
       </c>
       <c r="E9" t="n">
-        <v>1582.547901249582</v>
+        <v>31955.44829937355</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4464791138181639</v>
+        <v>0.4819103305172815</v>
       </c>
     </row>
     <row r="10">
@@ -2802,16 +5577,16 @@
         <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>33123.830545008124</v>
+        <v>358998.6890254153</v>
       </c>
       <c r="D10" t="n">
-        <v>4.5482684441757447E8</v>
+        <v>1.753825308539476E10</v>
       </c>
       <c r="E10" t="n">
-        <v>21326.669792013345</v>
+        <v>132432.06970139357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6438467242801225</v>
+        <v>0.36889290615771037</v>
       </c>
     </row>
     <row r="11">
@@ -2822,16 +5597,16 @@
         <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4057.039664395374</v>
+        <v>221226.45728901695</v>
       </c>
       <c r="D11" t="n">
-        <v>3373252.3957382394</v>
+        <v>7.153639777193719E9</v>
       </c>
       <c r="E11" t="n">
-        <v>1836.6416078642667</v>
+        <v>84579.1923418149</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4527048685233852</v>
+        <v>0.3823195171964358</v>
       </c>
     </row>
     <row r="12">
@@ -2842,16 +5617,16 @@
         <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2686.073583699452</v>
+        <v>89895.83939206997</v>
       </c>
       <c r="D12" t="n">
-        <v>1328628.8173469931</v>
+        <v>8.344894648233004E8</v>
       </c>
       <c r="E12" t="n">
-        <v>1152.6616230910931</v>
+        <v>28887.531303718224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4291251103789813</v>
+        <v>0.32134447488419016</v>
       </c>
     </row>
     <row r="13">
@@ -2862,16 +5637,16 @@
         <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3734.52297336727</v>
+        <v>173641.94723582527</v>
       </c>
       <c r="D13" t="n">
-        <v>5241254.95536846</v>
+        <v>4.504728200893002E9</v>
       </c>
       <c r="E13" t="n">
-        <v>2289.378726940665</v>
+        <v>67117.27200127402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6130311001612138</v>
+        <v>0.3865268333470208</v>
       </c>
     </row>
     <row r="14">
@@ -2882,16 +5657,16 @@
         <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7485.280399424959</v>
+        <v>370454.0453848723</v>
       </c>
       <c r="D14" t="n">
-        <v>2.8136821375196766E7</v>
+        <v>4.866998512803355E10</v>
       </c>
       <c r="E14" t="n">
-        <v>5304.4152717520865</v>
+        <v>220612.74924181864</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7086461680392878</v>
+        <v>0.5955198815891443</v>
       </c>
     </row>
     <row r="15">
@@ -2902,16 +5677,16 @@
         <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2316.3737919079676</v>
+        <v>48933.384995211214</v>
       </c>
       <c r="D15" t="n">
-        <v>1214862.6850282154</v>
+        <v>2.7852858661167383E8</v>
       </c>
       <c r="E15" t="n">
-        <v>1102.2080951563619</v>
+        <v>16689.17573194296</v>
       </c>
       <c r="F15" t="n">
-        <v>0.47583343370867925</v>
+        <v>0.3410590894861702</v>
       </c>
     </row>
   </sheetData>
@@ -2950,19 +5725,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1113688.2366634742</v>
+        <v>37593.47178279423</v>
       </c>
       <c r="D2" t="n">
-        <v>5.271037700006614E9</v>
+        <v>1.1469278344672582E9</v>
       </c>
       <c r="E2" t="n">
-        <v>72601.9125092901</v>
+        <v>33866.32301368511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06519051752472481</v>
+        <v>0.9008564893755049</v>
       </c>
     </row>
     <row r="3">
@@ -2970,19 +5745,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>932527.5986748552</v>
+        <v>56367.90117042876</v>
       </c>
       <c r="D3" t="n">
-        <v>5.477530649940075E9</v>
+        <v>7.531923204375198E7</v>
       </c>
       <c r="E3" t="n">
-        <v>74010.34150671159</v>
+        <v>8678.665337697495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07936530952207968</v>
+        <v>0.15396467062801375</v>
       </c>
     </row>
     <row r="4">
@@ -2990,19 +5765,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1907176.4078061914</v>
+        <v>140405.03370105193</v>
       </c>
       <c r="D4" t="n">
-        <v>5.968620909823026E10</v>
+        <v>2.255266444371495E9</v>
       </c>
       <c r="E4" t="n">
-        <v>244307.61162565168</v>
+        <v>47489.645654305474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12809911585823183</v>
+        <v>0.3382332128876493</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +5785,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1551656.8743111603</v>
+        <v>212812.83792393573</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0021763081454073E10</v>
+        <v>1.0806767406439977E9</v>
       </c>
       <c r="E5" t="n">
-        <v>100108.7562676416</v>
+        <v>32873.64811888084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0645173284925404</v>
+        <v>0.15447211004549757</v>
       </c>
     </row>
     <row r="6">
@@ -3030,19 +5805,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1639631.8565418106</v>
+        <v>88463.30021932717</v>
       </c>
       <c r="D6" t="n">
-        <v>1.314061298067534E10</v>
+        <v>1.9306058844496195E9</v>
       </c>
       <c r="E6" t="n">
-        <v>114632.51275565471</v>
+        <v>43938.66047627783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06991356766965304</v>
+        <v>0.49668800923479745</v>
       </c>
     </row>
     <row r="7">
@@ -3050,19 +5825,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1262150.7668057687</v>
+        <v>87391.37100469752</v>
       </c>
       <c r="D7" t="n">
-        <v>9.86272475434545E9</v>
+        <v>7.302366685706296E8</v>
       </c>
       <c r="E7" t="n">
-        <v>99311.25190201486</v>
+        <v>27022.89156568241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07868414337959816</v>
+        <v>0.3092169313172791</v>
       </c>
     </row>
     <row r="8">
@@ -3070,19 +5845,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1360737.9511147256</v>
+        <v>205373.18662619212</v>
       </c>
       <c r="D8" t="n">
-        <v>2.3012755190305473E10</v>
+        <v>3.627754487410157E9</v>
       </c>
       <c r="E8" t="n">
-        <v>151699.5556694398</v>
+        <v>60230.84332308619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1114832988564525</v>
+        <v>0.2932751071965141</v>
       </c>
     </row>
     <row r="9">
@@ -3090,19 +5865,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2819095.0589319686</v>
+        <v>178791.32853015303</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3738256480672762E11</v>
+        <v>2.2684949508626804E9</v>
       </c>
       <c r="E9" t="n">
-        <v>370651.5409474614</v>
+        <v>47628.719811293275</v>
       </c>
       <c r="F9" t="n">
-        <v>0.13147890837277584</v>
+        <v>0.26639278427455015</v>
       </c>
     </row>
     <row r="10">
@@ -3110,19 +5885,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1899587.2172002746</v>
+        <v>189446.11224836987</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5826192714307726E10</v>
+        <v>1.753885853889462E9</v>
       </c>
       <c r="E10" t="n">
-        <v>125802.19677854488</v>
+        <v>41879.42041014252</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06622607040068404</v>
+        <v>0.22106244310380604</v>
       </c>
     </row>
     <row r="11">
@@ -3130,19 +5905,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1936020.0922576024</v>
+        <v>219349.63424688563</v>
       </c>
       <c r="D11" t="n">
-        <v>2.2525944700190365E10</v>
+        <v>2.833224663907719E9</v>
       </c>
       <c r="E11" t="n">
-        <v>150086.45741768432</v>
+        <v>53228.0439609396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07752319204635308</v>
+        <v>0.24266301671161933</v>
       </c>
     </row>
     <row r="12">
@@ -3150,19 +5925,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1772029.3527047152</v>
+        <v>217318.48485790766</v>
       </c>
       <c r="D12" t="n">
-        <v>2.5409008475328747E10</v>
+        <v>2.2563857072257495E9</v>
       </c>
       <c r="E12" t="n">
-        <v>159402.03410034877</v>
+        <v>47501.42847563376</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08995451111294936</v>
+        <v>0.21857978858398663</v>
       </c>
     </row>
     <row r="13">
@@ -3170,19 +5945,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1747338.8200396465</v>
+        <v>285164.6025586077</v>
       </c>
       <c r="D13" t="n">
-        <v>3.2328164491159664E10</v>
+        <v>2.060377673859271E10</v>
       </c>
       <c r="E13" t="n">
-        <v>179800.34619310292</v>
+        <v>143540.15723341223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1028995316369285</v>
+        <v>0.5033589581088049</v>
       </c>
     </row>
     <row r="14">
@@ -3190,19 +5965,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1290727.177071432</v>
+        <v>472895.1507365388</v>
       </c>
       <c r="D14" t="n">
-        <v>1.699078387025558E10</v>
+        <v>2.1594362892526917E10</v>
       </c>
       <c r="E14" t="n">
-        <v>130348.70106853991</v>
+        <v>146950.20548650794</v>
       </c>
       <c r="F14" t="n">
-        <v>0.10098857712463438</v>
+        <v>0.31074584980969155</v>
       </c>
     </row>
     <row r="15">
@@ -3210,19 +5985,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1659129.0751294277</v>
+        <v>253216.46121030409</v>
       </c>
       <c r="D15" t="n">
-        <v>1.795212894694677E10</v>
+        <v>2.177621011886313E9</v>
       </c>
       <c r="E15" t="n">
-        <v>133985.55499361403</v>
+        <v>46664.98700188732</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08075655896944721</v>
+        <v>0.18428891541585288</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Test_DesignBased_Estimator/Design Based Estimates.xlsx
+++ b/examples/Test_DesignBased_Estimator/Design Based Estimates.xlsx
@@ -11,23 +11,22 @@
     <sheet name="GOA_Walleye pollock" r:id="rId5" sheetId="3"/>
     <sheet name="AI_Walleye pollock" r:id="rId6" sheetId="4"/>
     <sheet name="GOA_Pacific cod" r:id="rId7" sheetId="5"/>
-    <sheet name="EBS_SHELF_Pacific cod" r:id="rId8" sheetId="6"/>
-    <sheet name="AI_Pacific cod" r:id="rId9" sheetId="7"/>
-    <sheet name="GOA_Northern rockfish" r:id="rId10" sheetId="8"/>
-    <sheet name="AI_Northern rockfish" r:id="rId11" sheetId="9"/>
-    <sheet name="GOA_Dover sole" r:id="rId12" sheetId="10"/>
-    <sheet name="GOA_Big skate" r:id="rId13" sheetId="11"/>
-    <sheet name="AI_Atka mackerel" r:id="rId14" sheetId="12"/>
-    <sheet name="GOA_Harlequin rockfish" r:id="rId15" sheetId="13"/>
-    <sheet name="GOA_Arrowtooth flounder" r:id="rId16" sheetId="14"/>
-    <sheet name="EBS_SHELF_Arrowtooth flounder" r:id="rId17" sheetId="15"/>
-    <sheet name="GOA_Spiny dogfish" r:id="rId18" sheetId="16"/>
+    <sheet name="AI_Pacific cod" r:id="rId8" sheetId="6"/>
+    <sheet name="GOA_Northern rockfish" r:id="rId9" sheetId="7"/>
+    <sheet name="AI_Northern rockfish" r:id="rId10" sheetId="8"/>
+    <sheet name="GOA_Dover sole" r:id="rId11" sheetId="9"/>
+    <sheet name="GOA_Big skate" r:id="rId12" sheetId="10"/>
+    <sheet name="AI_Atka mackerel" r:id="rId13" sheetId="11"/>
+    <sheet name="GOA_Harlequin rockfish" r:id="rId14" sheetId="12"/>
+    <sheet name="GOA_Arrowtooth flounder" r:id="rId15" sheetId="13"/>
+    <sheet name="EBS_SHELF_Arrowtooth flounder" r:id="rId16" sheetId="14"/>
+    <sheet name="GOA_Spiny dogfish" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="40">
   <si>
     <t>YEAR</t>
   </si>
@@ -534,16 +533,16 @@
         <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>68633.7891577465</v>
+        <v>27607.26098099168</v>
       </c>
       <c r="D2" t="n">
-        <v>3.781212190838004E7</v>
+        <v>3.63870902418494E7</v>
       </c>
       <c r="E2" t="n">
-        <v>6149.156194827062</v>
+        <v>6032.171270931338</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08959371572351872</v>
+        <v>0.21849944748537878</v>
       </c>
     </row>
     <row r="3">
@@ -554,16 +553,16 @@
         <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>63394.41607893733</v>
+        <v>28135.448866254927</v>
       </c>
       <c r="D3" t="n">
-        <v>5.458865352012821E7</v>
+        <v>1.9458763919439044E7</v>
       </c>
       <c r="E3" t="n">
-        <v>7388.413464345929</v>
+        <v>4411.208895466076</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11654675476695045</v>
+        <v>0.15678473503071735</v>
       </c>
     </row>
     <row r="4">
@@ -574,16 +573,16 @@
         <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>96596.8190505549</v>
+        <v>22316.209625023403</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5313196731019202E8</v>
+        <v>3.1067899516477402E7</v>
       </c>
       <c r="E4" t="n">
-        <v>12374.650189407055</v>
+        <v>5573.8585841836175</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12810618725375067</v>
+        <v>0.24976726235505473</v>
       </c>
     </row>
     <row r="5">
@@ -594,16 +593,16 @@
         <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>85549.05085398392</v>
+        <v>39707.88591302294</v>
       </c>
       <c r="D5" t="n">
-        <v>4.148786820351742E7</v>
+        <v>5.0551143753639035E7</v>
       </c>
       <c r="E5" t="n">
-        <v>6441.107684514941</v>
+        <v>7109.932753102454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0752913985627812</v>
+        <v>0.1790559378727997</v>
       </c>
     </row>
     <row r="6">
@@ -614,16 +613,16 @@
         <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>79530.24950163432</v>
+        <v>43063.85711407673</v>
       </c>
       <c r="D6" t="n">
-        <v>3.1628340545021616E7</v>
+        <v>5.7619096019248925E7</v>
       </c>
       <c r="E6" t="n">
-        <v>5623.907942438391</v>
+        <v>7590.724340881371</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07071407392381966</v>
+        <v>0.176266708315826</v>
       </c>
     </row>
     <row r="7">
@@ -634,16 +633,16 @@
         <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>74245.21680594703</v>
+        <v>54650.40122964112</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7413205957390133E7</v>
+        <v>6.473976859722426E7</v>
       </c>
       <c r="E7" t="n">
-        <v>5235.762213602728</v>
+        <v>8046.102696164415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07051985890602644</v>
+        <v>0.14722861159526848</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +653,16 @@
         <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>32423.90797904045</v>
+        <v>39082.269256227046</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4122295718716972E7</v>
+        <v>5.3147045221041895E7</v>
       </c>
       <c r="E8" t="n">
-        <v>3757.9643051414114</v>
+        <v>7290.202001388021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11590102919027048</v>
+        <v>0.1865347673031156</v>
       </c>
     </row>
     <row r="9">
@@ -674,16 +673,16 @@
         <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>99296.62617433087</v>
+        <v>55396.712638026154</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1118576120922644E8</v>
+        <v>8.238689065300226E7</v>
       </c>
       <c r="E9" t="n">
-        <v>10544.46590440817</v>
+        <v>9076.722462045553</v>
       </c>
       <c r="F9" t="n">
-        <v>0.10619158284286215</v>
+        <v>0.1638494782416924</v>
       </c>
     </row>
     <row r="10">
@@ -694,16 +693,16 @@
         <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>80560.47717498823</v>
+        <v>39319.86281069215</v>
       </c>
       <c r="D10" t="n">
-        <v>4.620545637460832E7</v>
+        <v>4.034092227196407E7</v>
       </c>
       <c r="E10" t="n">
-        <v>6797.459552995392</v>
+        <v>6351.450406951476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08437710141947635</v>
+        <v>0.16153287302987085</v>
       </c>
     </row>
     <row r="11">
@@ -714,16 +713,16 @@
         <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>71468.5091960996</v>
+        <v>39629.54527380366</v>
       </c>
       <c r="D11" t="n">
-        <v>5.056779960558433E7</v>
+        <v>5.9199359614076205E7</v>
       </c>
       <c r="E11" t="n">
-        <v>7111.103965319613</v>
+        <v>7694.112009457375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09949982230366296</v>
+        <v>0.1941509032288447</v>
       </c>
     </row>
     <row r="12">
@@ -734,16 +733,16 @@
         <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>76276.93110273265</v>
+        <v>44349.291792831245</v>
       </c>
       <c r="D12" t="n">
-        <v>4.1433952986025654E7</v>
+        <v>5.118320302631646E7</v>
       </c>
       <c r="E12" t="n">
-        <v>6436.9210796797615</v>
+        <v>7154.243707500916</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08438883141496967</v>
+        <v>0.1613158501136956</v>
       </c>
     </row>
     <row r="13">
@@ -754,16 +753,16 @@
         <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>77530.87007075697</v>
+        <v>67882.7439925255</v>
       </c>
       <c r="D13" t="n">
-        <v>5.472765854450502E7</v>
+        <v>6.181668838650324E8</v>
       </c>
       <c r="E13" t="n">
-        <v>7397.814443773582</v>
+        <v>24862.962089522487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09541766314530092</v>
+        <v>0.36626336278127064</v>
       </c>
     </row>
     <row r="14">
@@ -774,16 +773,16 @@
         <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>82738.89311549942</v>
+        <v>38233.60674072062</v>
       </c>
       <c r="D14" t="n">
-        <v>3.200149172776994E8</v>
+        <v>9.57496800278743E7</v>
       </c>
       <c r="E14" t="n">
-        <v>17888.960765726428</v>
+        <v>9785.176545564946</v>
       </c>
       <c r="F14" t="n">
-        <v>0.21620981490233765</v>
+        <v>0.2559312965664645</v>
       </c>
     </row>
     <row r="15">
@@ -794,16 +793,16 @@
         <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>53067.00075185715</v>
+        <v>58005.59006429978</v>
       </c>
       <c r="D15" t="n">
-        <v>2.4956950153002646E7</v>
+        <v>9.766696315547307E7</v>
       </c>
       <c r="E15" t="n">
-        <v>4995.693160413542</v>
+        <v>9882.659720716538</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09413935382882385</v>
+        <v>0.17037426409698633</v>
       </c>
     </row>
   </sheetData>
@@ -842,19 +841,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>27607.26098099168</v>
+        <v>96046.22343414213</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63870902418494E7</v>
+        <v>3.100537997472533E9</v>
       </c>
       <c r="E2" t="n">
-        <v>6032.171270931338</v>
+        <v>55682.47477862791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.21849944748537878</v>
+        <v>0.5797466343568292</v>
       </c>
     </row>
     <row r="3">
@@ -862,19 +861,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>28135.448866254927</v>
+        <v>489328.247886811</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9458763919439044E7</v>
+        <v>1.4251922185486778E10</v>
       </c>
       <c r="E3" t="n">
-        <v>4411.208895466076</v>
+        <v>119381.41474068222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15678473503071735</v>
+        <v>0.24397000429923463</v>
       </c>
     </row>
     <row r="4">
@@ -882,19 +881,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C4" t="n">
-        <v>22316.209625023403</v>
+        <v>1119578.1102116606</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1067899516477402E7</v>
+        <v>8.064996720495623E11</v>
       </c>
       <c r="E4" t="n">
-        <v>5573.8585841836175</v>
+        <v>898053.2679354617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.24976726235505473</v>
+        <v>0.8021354291802661</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +901,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C5" t="n">
-        <v>39707.88591302294</v>
+        <v>708298.7534878738</v>
       </c>
       <c r="D5" t="n">
-        <v>5.0551143753639035E7</v>
+        <v>1.0470463010159054E10</v>
       </c>
       <c r="E5" t="n">
-        <v>7109.932753102454</v>
+        <v>102325.28040596348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1790559378727997</v>
+        <v>0.14446627203857604</v>
       </c>
     </row>
     <row r="6">
@@ -922,19 +921,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>43063.85711407673</v>
+        <v>686007.1910861329</v>
       </c>
       <c r="D6" t="n">
-        <v>5.7619096019248925E7</v>
+        <v>4.943568881471019E10</v>
       </c>
       <c r="E6" t="n">
-        <v>7590.724340881371</v>
+        <v>222341.37899795035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.176266708315826</v>
+        <v>0.3241093998532646</v>
       </c>
     </row>
     <row r="7">
@@ -942,19 +941,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C7" t="n">
-        <v>54650.40122964112</v>
+        <v>461997.08226931136</v>
       </c>
       <c r="D7" t="n">
-        <v>6.473976859722426E7</v>
+        <v>2.0057614775514145E10</v>
       </c>
       <c r="E7" t="n">
-        <v>8046.102696164415</v>
+        <v>141624.90873964984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.14722861159526848</v>
+        <v>0.3065493575067485</v>
       </c>
     </row>
     <row r="8">
@@ -962,19 +961,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>39082.269256227046</v>
+        <v>512896.8249749221</v>
       </c>
       <c r="D8" t="n">
-        <v>5.3147045221041895E7</v>
+        <v>2.096479969970902E10</v>
       </c>
       <c r="E8" t="n">
-        <v>7290.202001388021</v>
+        <v>144792.26394980162</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1865347673031156</v>
+        <v>0.2823029055734186</v>
       </c>
     </row>
     <row r="9">
@@ -982,19 +981,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C9" t="n">
-        <v>55396.712638026154</v>
+        <v>836194.9252381887</v>
       </c>
       <c r="D9" t="n">
-        <v>8.238689065300226E7</v>
+        <v>2.824343047964828E10</v>
       </c>
       <c r="E9" t="n">
-        <v>9076.722462045553</v>
+        <v>168057.81885901137</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1638494782416924</v>
+        <v>0.2009792379583509</v>
       </c>
     </row>
     <row r="10">
@@ -1002,19 +1001,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C10" t="n">
-        <v>39319.86281069215</v>
+        <v>1157083.8697826166</v>
       </c>
       <c r="D10" t="n">
-        <v>4.034092227196407E7</v>
+        <v>3.6547193927406136E10</v>
       </c>
       <c r="E10" t="n">
-        <v>6351.450406951476</v>
+        <v>191173.20399942598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16153287302987085</v>
+        <v>0.16521983323070785</v>
       </c>
     </row>
     <row r="11">
@@ -1022,19 +1021,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C11" t="n">
-        <v>39629.54527380366</v>
+        <v>741648.47638534</v>
       </c>
       <c r="D11" t="n">
-        <v>5.9199359614076205E7</v>
+        <v>4.225438100701579E10</v>
       </c>
       <c r="E11" t="n">
-        <v>7694.112009457375</v>
+        <v>205558.70452747992</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1941509032288447</v>
+        <v>0.27716460165783086</v>
       </c>
     </row>
     <row r="12">
@@ -1042,19 +1041,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C12" t="n">
-        <v>44349.291792831245</v>
+        <v>930251.3348103752</v>
       </c>
       <c r="D12" t="n">
-        <v>5.118320302631646E7</v>
+        <v>1.0816679383403786E11</v>
       </c>
       <c r="E12" t="n">
-        <v>7154.243707500916</v>
+        <v>328887.2053364768</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1613158501136956</v>
+        <v>0.35354660942627725</v>
       </c>
     </row>
     <row r="13">
@@ -1062,19 +1061,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C13" t="n">
-        <v>67882.7439925255</v>
+        <v>276876.2175119125</v>
       </c>
       <c r="D13" t="n">
-        <v>6.181668838650324E8</v>
+        <v>2.5013975740895233E9</v>
       </c>
       <c r="E13" t="n">
-        <v>24862.962089522487</v>
+        <v>50013.97378822766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.36626336278127064</v>
+        <v>0.18063658279381045</v>
       </c>
     </row>
     <row r="14">
@@ -1082,19 +1081,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C14" t="n">
-        <v>38233.60674072062</v>
+        <v>723927.573270405</v>
       </c>
       <c r="D14" t="n">
-        <v>9.57496800278743E7</v>
+        <v>3.097458850823993E10</v>
       </c>
       <c r="E14" t="n">
-        <v>9785.176545564946</v>
+        <v>175995.99003454574</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2559312965664645</v>
+        <v>0.24311270427160103</v>
       </c>
     </row>
     <row r="15">
@@ -1102,19 +1101,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C15" t="n">
-        <v>58005.59006429978</v>
+        <v>448165.610178224</v>
       </c>
       <c r="D15" t="n">
-        <v>9.766696315547307E7</v>
+        <v>1.9169404206104855E10</v>
       </c>
       <c r="E15" t="n">
-        <v>9882.659720716538</v>
+        <v>138453.61752624906</v>
       </c>
       <c r="F15" t="n">
-        <v>0.17037426409698633</v>
+        <v>0.30893405112273026</v>
       </c>
     </row>
   </sheetData>
@@ -1153,19 +1152,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1980.0</v>
+        <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>96046.22343414213</v>
+        <v>2626.389691987402</v>
       </c>
       <c r="D2" t="n">
-        <v>3.100537997472533E9</v>
+        <v>682860.1566988972</v>
       </c>
       <c r="E2" t="n">
-        <v>55682.47477862791</v>
+        <v>826.3535300940496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5797466343568292</v>
+        <v>0.3146347751116643</v>
       </c>
     </row>
     <row r="3">
@@ -1173,19 +1172,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1983.0</v>
+        <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>489328.247886811</v>
+        <v>72442.38055867594</v>
       </c>
       <c r="D3" t="n">
-        <v>1.4251922185486778E10</v>
+        <v>4.529916182987597E8</v>
       </c>
       <c r="E3" t="n">
-        <v>119381.41474068222</v>
+        <v>21283.5997495433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.24397000429923463</v>
+        <v>0.2938003912268494</v>
       </c>
     </row>
     <row r="4">
@@ -1193,19 +1192,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1986.0</v>
+        <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1119578.1102116606</v>
+        <v>17664.16611885209</v>
       </c>
       <c r="D4" t="n">
-        <v>8.064996720495623E11</v>
+        <v>8.09229333554034E7</v>
       </c>
       <c r="E4" t="n">
-        <v>898053.2679354617</v>
+        <v>8995.71750086692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8021354291802661</v>
+        <v>0.5092636380534395</v>
       </c>
     </row>
     <row r="5">
@@ -1213,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1991.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>708298.7534878738</v>
+        <v>9280.331816088936</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0470463010159054E10</v>
+        <v>1.92803175129331E7</v>
       </c>
       <c r="E5" t="n">
-        <v>102325.28040596348</v>
+        <v>4390.935835665684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14446627203857604</v>
+        <v>0.4731442714206938</v>
       </c>
     </row>
     <row r="6">
@@ -1233,19 +1232,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1994.0</v>
+        <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>686007.1910861329</v>
+        <v>20026.180696345502</v>
       </c>
       <c r="D6" t="n">
-        <v>4.943568881471019E10</v>
+        <v>1.6449094043000484E8</v>
       </c>
       <c r="E6" t="n">
-        <v>222341.37899795035</v>
+        <v>12825.402154708634</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3241093998532646</v>
+        <v>0.6404317602631584</v>
       </c>
     </row>
     <row r="7">
@@ -1253,19 +1252,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1997.0</v>
+        <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>461997.08226931136</v>
+        <v>9876.455798164</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0057614775514145E10</v>
+        <v>1.7587023729982942E7</v>
       </c>
       <c r="E7" t="n">
-        <v>141624.90873964984</v>
+        <v>4193.68855901138</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3065493575067485</v>
+        <v>0.4246147246253026</v>
       </c>
     </row>
     <row r="8">
@@ -1273,19 +1272,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2000.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>512896.8249749221</v>
+        <v>8364.758885037541</v>
       </c>
       <c r="D8" t="n">
-        <v>2.096479969970902E10</v>
+        <v>1.7384056647100657E7</v>
       </c>
       <c r="E8" t="n">
-        <v>144792.26394980162</v>
+        <v>4169.419221798242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2823029055734186</v>
+        <v>0.4984506163418875</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1292,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2002.0</v>
+        <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>836194.9252381887</v>
+        <v>3544.5060077191006</v>
       </c>
       <c r="D9" t="n">
-        <v>2.824343047964828E10</v>
+        <v>2504457.859749455</v>
       </c>
       <c r="E9" t="n">
-        <v>168057.81885901137</v>
+        <v>1582.5479012495814</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2009792379583509</v>
+        <v>0.44647911381816374</v>
       </c>
     </row>
     <row r="10">
@@ -1313,19 +1312,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2004.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1157083.8697826166</v>
+        <v>33123.830545008124</v>
       </c>
       <c r="D10" t="n">
-        <v>3.6547193927406136E10</v>
+        <v>4.5482684441757476E8</v>
       </c>
       <c r="E10" t="n">
-        <v>191173.20399942598</v>
+        <v>21326.669792013352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16521983323070785</v>
+        <v>0.6438467242801227</v>
       </c>
     </row>
     <row r="11">
@@ -1333,19 +1332,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2006.0</v>
+        <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>741648.47638534</v>
+        <v>4057.039664395374</v>
       </c>
       <c r="D11" t="n">
-        <v>4.225438100701579E10</v>
+        <v>3373252.395738241</v>
       </c>
       <c r="E11" t="n">
-        <v>205558.70452747992</v>
+        <v>1836.6416078642671</v>
       </c>
       <c r="F11" t="n">
-        <v>0.27716460165783086</v>
+        <v>0.4527048685233853</v>
       </c>
     </row>
     <row r="12">
@@ -1353,19 +1352,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>930251.3348103752</v>
+        <v>2686.073583699452</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0816679383403786E11</v>
+        <v>1328628.8173469931</v>
       </c>
       <c r="E12" t="n">
-        <v>328887.2053364768</v>
+        <v>1152.6616230910931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.35354660942627725</v>
+        <v>0.4291251103789813</v>
       </c>
     </row>
     <row r="13">
@@ -1373,19 +1372,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>276876.2175119125</v>
+        <v>3734.52297336727</v>
       </c>
       <c r="D13" t="n">
-        <v>2.5013975740895233E9</v>
+        <v>5241254.955368459</v>
       </c>
       <c r="E13" t="n">
-        <v>50013.97378822766</v>
+        <v>2289.378726940665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18063658279381045</v>
+        <v>0.6130311001612138</v>
       </c>
     </row>
     <row r="14">
@@ -1393,19 +1392,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>723927.573270405</v>
+        <v>7485.280399424959</v>
       </c>
       <c r="D14" t="n">
-        <v>3.097458850823993E10</v>
+        <v>2.813682137519677E7</v>
       </c>
       <c r="E14" t="n">
-        <v>175995.99003454574</v>
+        <v>5304.415271752087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.24311270427160103</v>
+        <v>0.7086461680392879</v>
       </c>
     </row>
     <row r="15">
@@ -1413,19 +1412,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>448165.610178224</v>
+        <v>2316.3737919079676</v>
       </c>
       <c r="D15" t="n">
-        <v>1.9169404206104855E10</v>
+        <v>1214862.6850282152</v>
       </c>
       <c r="E15" t="n">
-        <v>138453.61752624906</v>
+        <v>1102.2080951563617</v>
       </c>
       <c r="F15" t="n">
-        <v>0.30893405112273026</v>
+        <v>0.47583343370867914</v>
       </c>
     </row>
   </sheetData>
@@ -1467,16 +1466,16 @@
         <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2626.389691987402</v>
+        <v>1113688.2366634742</v>
       </c>
       <c r="D2" t="n">
-        <v>682860.1566988972</v>
+        <v>5.271037700006614E9</v>
       </c>
       <c r="E2" t="n">
-        <v>826.3535300940496</v>
+        <v>72601.9125092901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3146347751116643</v>
+        <v>0.06519051752472481</v>
       </c>
     </row>
     <row r="3">
@@ -1487,16 +1486,16 @@
         <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>72442.38055867594</v>
+        <v>932527.5986748552</v>
       </c>
       <c r="D3" t="n">
-        <v>4.529916182987597E8</v>
+        <v>5.477530649940076E9</v>
       </c>
       <c r="E3" t="n">
-        <v>21283.5997495433</v>
+        <v>74010.34150671159</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2938003912268494</v>
+        <v>0.07936530952207968</v>
       </c>
     </row>
     <row r="4">
@@ -1507,16 +1506,16 @@
         <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>17664.16611885209</v>
+        <v>1907176.4078061914</v>
       </c>
       <c r="D4" t="n">
-        <v>8.09229333554034E7</v>
+        <v>5.968620909823026E10</v>
       </c>
       <c r="E4" t="n">
-        <v>8995.71750086692</v>
+        <v>244307.61162565168</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5092636380534395</v>
+        <v>0.12809911585823183</v>
       </c>
     </row>
     <row r="5">
@@ -1527,16 +1526,16 @@
         <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9280.331816088936</v>
+        <v>1551656.8743111603</v>
       </c>
       <c r="D5" t="n">
-        <v>1.92803175129331E7</v>
+        <v>1.0021763081454073E10</v>
       </c>
       <c r="E5" t="n">
-        <v>4390.935835665684</v>
+        <v>100108.7562676416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4731442714206938</v>
+        <v>0.0645173284925404</v>
       </c>
     </row>
     <row r="6">
@@ -1547,16 +1546,16 @@
         <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>20026.180696345502</v>
+        <v>1639631.8565418106</v>
       </c>
       <c r="D6" t="n">
-        <v>1.6449094043000484E8</v>
+        <v>1.314061298067534E10</v>
       </c>
       <c r="E6" t="n">
-        <v>12825.402154708634</v>
+        <v>114632.51275565471</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6404317602631584</v>
+        <v>0.06991356766965304</v>
       </c>
     </row>
     <row r="7">
@@ -1567,16 +1566,16 @@
         <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>9876.455798164</v>
+        <v>1262150.7668057687</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7587023729982942E7</v>
+        <v>9.86272475434545E9</v>
       </c>
       <c r="E7" t="n">
-        <v>4193.68855901138</v>
+        <v>99311.25190201486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4246147246253026</v>
+        <v>0.07868414337959816</v>
       </c>
     </row>
     <row r="8">
@@ -1587,16 +1586,16 @@
         <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>8364.758885037541</v>
+        <v>1360737.9511147256</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7384056647100657E7</v>
+        <v>2.3012755190305473E10</v>
       </c>
       <c r="E8" t="n">
-        <v>4169.419221798242</v>
+        <v>151699.5556694398</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4984506163418875</v>
+        <v>0.1114832988564525</v>
       </c>
     </row>
     <row r="9">
@@ -1607,16 +1606,16 @@
         <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3544.5060077191006</v>
+        <v>2819095.0589319686</v>
       </c>
       <c r="D9" t="n">
-        <v>2504457.859749455</v>
+        <v>1.3738256480672762E11</v>
       </c>
       <c r="E9" t="n">
-        <v>1582.5479012495814</v>
+        <v>370651.5409474614</v>
       </c>
       <c r="F9" t="n">
-        <v>0.44647911381816374</v>
+        <v>0.13147890837277584</v>
       </c>
     </row>
     <row r="10">
@@ -1627,16 +1626,16 @@
         <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>33123.830545008124</v>
+        <v>1899587.2172002746</v>
       </c>
       <c r="D10" t="n">
-        <v>4.5482684441757476E8</v>
+        <v>1.5826192714307724E10</v>
       </c>
       <c r="E10" t="n">
-        <v>21326.669792013352</v>
+        <v>125802.19677854487</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6438467242801227</v>
+        <v>0.06622607040068404</v>
       </c>
     </row>
     <row r="11">
@@ -1647,16 +1646,16 @@
         <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4057.039664395374</v>
+        <v>1936020.0922576024</v>
       </c>
       <c r="D11" t="n">
-        <v>3373252.395738241</v>
+        <v>2.2525944700190365E10</v>
       </c>
       <c r="E11" t="n">
-        <v>1836.6416078642671</v>
+        <v>150086.45741768432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4527048685233853</v>
+        <v>0.07752319204635308</v>
       </c>
     </row>
     <row r="12">
@@ -1667,16 +1666,16 @@
         <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2686.073583699452</v>
+        <v>1772029.3527047152</v>
       </c>
       <c r="D12" t="n">
-        <v>1328628.8173469931</v>
+        <v>2.5409008475328747E10</v>
       </c>
       <c r="E12" t="n">
-        <v>1152.6616230910931</v>
+        <v>159402.03410034877</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4291251103789813</v>
+        <v>0.08995451111294936</v>
       </c>
     </row>
     <row r="13">
@@ -1687,16 +1686,16 @@
         <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3734.52297336727</v>
+        <v>1747338.8200396465</v>
       </c>
       <c r="D13" t="n">
-        <v>5241254.955368459</v>
+        <v>3.2328164491159664E10</v>
       </c>
       <c r="E13" t="n">
-        <v>2289.378726940665</v>
+        <v>179800.34619310292</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6130311001612138</v>
+        <v>0.1028995316369285</v>
       </c>
     </row>
     <row r="14">
@@ -1707,16 +1706,16 @@
         <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7485.280399424959</v>
+        <v>1290727.177071432</v>
       </c>
       <c r="D14" t="n">
-        <v>2.813682137519677E7</v>
+        <v>1.6990783870255583E10</v>
       </c>
       <c r="E14" t="n">
-        <v>5304.415271752087</v>
+        <v>130348.70106853993</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7086461680392879</v>
+        <v>0.1009885771246344</v>
       </c>
     </row>
     <row r="15">
@@ -1727,16 +1726,16 @@
         <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2316.3737919079676</v>
+        <v>1659129.0751294277</v>
       </c>
       <c r="D15" t="n">
-        <v>1214862.6850282152</v>
+        <v>1.795212894694677E10</v>
       </c>
       <c r="E15" t="n">
-        <v>1102.2080951563617</v>
+        <v>133985.55499361403</v>
       </c>
       <c r="F15" t="n">
-        <v>0.47583343370867914</v>
+        <v>0.08075655896944721</v>
       </c>
     </row>
   </sheetData>
@@ -1775,19 +1774,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1982.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1113688.2366634742</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.271037700006614E9</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>72601.9125092901</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.06519051752472481</v>
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
@@ -1795,19 +1794,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>932527.5986748552</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.477530649940076E9</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>74010.34150671159</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.07936530952207968</v>
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
@@ -1815,19 +1814,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1984.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1907176.4078061914</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.968620909823026E10</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>244307.61162565168</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.12809911585823183</v>
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
@@ -1835,19 +1834,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1985.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1551656.8743111603</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0021763081454073E10</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>100108.7562676416</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0645173284925404</v>
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6">
@@ -1855,19 +1854,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1639631.8565418106</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.314061298067534E10</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>114632.51275565471</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.06991356766965304</v>
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
@@ -1875,19 +1874,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1987.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1262150.7668057687</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.86272475434545E9</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>99311.25190201486</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.07868414337959816</v>
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
@@ -1895,19 +1894,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>1988.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1360737.9511147256</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.3012755190305473E10</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>151699.5556694398</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1114832988564525</v>
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
@@ -1915,19 +1914,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>1989.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2819095.0589319686</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3738256480672762E11</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>370651.5409474614</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.13147890837277584</v>
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10">
@@ -1935,19 +1934,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>1990.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1899587.2172002746</v>
+        <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5826192714307724E10</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>125802.19677854487</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.06622607040068404</v>
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11">
@@ -1955,19 +1954,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1936020.0922576024</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.2525944700190365E10</v>
+        <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>150086.45741768432</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.07752319204635308</v>
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12">
@@ -1975,19 +1974,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>1992.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1772029.3527047152</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.5409008475328747E10</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>159402.03410034877</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.08995451111294936</v>
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13">
@@ -1995,19 +1994,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1747338.8200396465</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.2328164491159664E10</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>179800.34619310292</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1028995316369285</v>
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14">
@@ -2015,19 +2014,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1290727.177071432</v>
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.6990783870255583E10</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>130348.70106853993</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1009885771246344</v>
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15">
@@ -2035,19 +2034,439 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
         <v>2015.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>1659129.0751294277</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.795212894694677E10</v>
-      </c>
-      <c r="E15" t="n">
-        <v>133985.55499361403</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.08075655896944721</v>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -2086,737 +2505,6 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1982.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1983.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1985.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1986.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1988.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1989.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1991.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1994.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1995.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1997.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1998.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2002.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2004.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2006.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2008.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2010.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2012.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
         <v>1984.0</v>
       </c>
       <c r="C2" t="n">
@@ -4372,19 +4060,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1982.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>146272.6377045942</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>8.907390934627414E8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#N/A</v>
+        <v>29845.252444278998</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.20403851952511556</v>
       </c>
     </row>
     <row r="3">
@@ -4395,16 +4083,16 @@
         <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>215822.76010721733</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>9.600657119915833E8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#N/A</v>
+        <v>30984.927174217843</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.14356654116936055</v>
       </c>
     </row>
     <row r="4">
@@ -4412,19 +4100,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1984.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>254697.33763241774</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>4.424261678090546E9</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
+        <v>66515.12367943508</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2611535884031521</v>
       </c>
     </row>
     <row r="5">
@@ -4432,19 +4120,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1985.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>188455.40641038126</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>6.512520704917269E8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
+        <v>25519.640877013273</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13541474539309103</v>
       </c>
     </row>
     <row r="6">
@@ -4452,19 +4140,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1986.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>184499.1323336066</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>1.1390395029914951E9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+        <v>33749.659301858075</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.18292584292934672</v>
       </c>
     </row>
     <row r="7">
@@ -4472,19 +4160,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1987.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>83590.41205882984</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>1.1033975102517268E8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#N/A</v>
+        <v>10504.272988892315</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12566361057652814</v>
       </c>
     </row>
     <row r="8">
@@ -4492,19 +4180,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>1988.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>136027.62366657282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>5.56021471991911E8</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#N/A</v>
+        <v>23580.10754835336</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.17334793413837968</v>
       </c>
     </row>
     <row r="9">
@@ -4512,19 +4200,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>1989.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>83152.53518582524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>1.488715692716254E8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
+        <v>12201.293754009263</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.14673387560273904</v>
       </c>
     </row>
     <row r="10">
@@ -4532,19 +4220,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>1990.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>114183.61308515805</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>3.9878993236840636E8</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#N/A</v>
+        <v>19969.725395418096</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1748913426003142</v>
       </c>
     </row>
     <row r="11">
@@ -4552,19 +4240,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>1991.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>92271.6827554874</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>5.979804512262157E8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="e">
-        <v>#N/A</v>
+        <v>24453.63881360432</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2650178048492354</v>
       </c>
     </row>
     <row r="12">
@@ -4572,19 +4260,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>1992.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>68575.67328894761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>1.199191169515322E8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="e">
-        <v>#N/A</v>
+        <v>10950.758738623192</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1596886798687565</v>
       </c>
     </row>
     <row r="13">
@@ -4592,19 +4280,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>1993.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>65858.42897655317</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>8.142238892108728E7</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="e">
-        <v>#N/A</v>
+        <v>9023.435538700727</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.13701261446599702</v>
       </c>
     </row>
     <row r="14">
@@ -4612,19 +4300,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>1994.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>86790.59850654732</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>1.965733549639212E8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#N/A</v>
+        <v>14020.4620096458</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.16154355714678154</v>
       </c>
     </row>
     <row r="15">
@@ -4632,439 +4320,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1995.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>95734.84376933085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>2.469083015430705E8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1997.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1998.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2002.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F22" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2004.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2006.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2008.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2010.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2012.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F36" t="e">
-        <v>#N/A</v>
+        <v>15713.316058142233</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.16413372017405511</v>
       </c>
     </row>
   </sheetData>
@@ -5103,19 +4371,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1980.0</v>
+        <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>146272.6377045942</v>
+        <v>39506.2652189262</v>
       </c>
       <c r="D2" t="n">
-        <v>8.907390934627414E8</v>
+        <v>1.2830973134799333E8</v>
       </c>
       <c r="E2" t="n">
-        <v>29845.252444278998</v>
+        <v>11327.388549352112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.20403851952511556</v>
+        <v>0.28672385219358876</v>
       </c>
     </row>
     <row r="3">
@@ -5123,19 +4391,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1983.0</v>
+        <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>215822.76010721733</v>
+        <v>136694.7292276805</v>
       </c>
       <c r="D3" t="n">
-        <v>9.600657119915833E8</v>
+        <v>1.5338936399278576E9</v>
       </c>
       <c r="E3" t="n">
-        <v>30984.927174217843</v>
+        <v>39164.95423114724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14356654116936055</v>
+        <v>0.28651400425186535</v>
       </c>
     </row>
     <row r="4">
@@ -5143,19 +4411,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1986.0</v>
+        <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>254697.33763241774</v>
+        <v>107076.07709051284</v>
       </c>
       <c r="D4" t="n">
-        <v>4.424261678090546E9</v>
+        <v>2.0686461381030037E9</v>
       </c>
       <c r="E4" t="n">
-        <v>66515.12367943508</v>
+        <v>45482.37172908866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2611535884031521</v>
+        <v>0.4247668850497932</v>
       </c>
     </row>
     <row r="5">
@@ -5163,19 +4431,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1991.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>188455.40641038126</v>
+        <v>104479.59271794511</v>
       </c>
       <c r="D5" t="n">
-        <v>6.512520704917269E8</v>
+        <v>1.3523640469766798E9</v>
       </c>
       <c r="E5" t="n">
-        <v>25519.640877013273</v>
+        <v>36774.50267477019</v>
       </c>
       <c r="F5" t="n">
-        <v>0.13541474539309103</v>
+        <v>0.35197785249840385</v>
       </c>
     </row>
     <row r="6">
@@ -5183,19 +4451,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1994.0</v>
+        <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>184499.1323336066</v>
+        <v>98965.05256508115</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1390395029914951E9</v>
+        <v>7.073345677402056E8</v>
       </c>
       <c r="E6" t="n">
-        <v>33749.659301858075</v>
+        <v>26595.762213935617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.18292584292934672</v>
+        <v>0.2687389287894914</v>
       </c>
     </row>
     <row r="7">
@@ -5203,19 +4471,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1997.0</v>
+        <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>83590.41205882984</v>
+        <v>242186.97242413822</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1033975102517268E8</v>
+        <v>2.164110293995178E10</v>
       </c>
       <c r="E7" t="n">
-        <v>10504.272988892315</v>
+        <v>147109.15314810217</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12566361057652814</v>
+        <v>0.6074197619947626</v>
       </c>
     </row>
     <row r="8">
@@ -5223,19 +4491,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2000.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>136027.62366657282</v>
+        <v>343613.6499993552</v>
       </c>
       <c r="D8" t="n">
-        <v>5.56021471991911E8</v>
+        <v>4.221983739068083E10</v>
       </c>
       <c r="E8" t="n">
-        <v>23580.10754835336</v>
+        <v>205474.66362225986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.17334793413837968</v>
+        <v>0.5979816681399166</v>
       </c>
     </row>
     <row r="9">
@@ -5243,19 +4511,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2002.0</v>
+        <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>83152.53518582524</v>
+        <v>66309.94663482861</v>
       </c>
       <c r="D9" t="n">
-        <v>1.488715692716254E8</v>
+        <v>1.021150676013936E9</v>
       </c>
       <c r="E9" t="n">
-        <v>12201.293754009263</v>
+        <v>31955.44829937355</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14673387560273904</v>
+        <v>0.4819103305172815</v>
       </c>
     </row>
     <row r="10">
@@ -5263,19 +4531,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2004.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>114183.61308515805</v>
+        <v>358998.6890254153</v>
       </c>
       <c r="D10" t="n">
-        <v>3.9878993236840636E8</v>
+        <v>1.753825308539476E10</v>
       </c>
       <c r="E10" t="n">
-        <v>19969.725395418096</v>
+        <v>132432.06970139357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1748913426003142</v>
+        <v>0.36889290615771037</v>
       </c>
     </row>
     <row r="11">
@@ -5283,19 +4551,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2006.0</v>
+        <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>92271.6827554874</v>
+        <v>221226.45728901695</v>
       </c>
       <c r="D11" t="n">
-        <v>5.979804512262157E8</v>
+        <v>7.153639777193719E9</v>
       </c>
       <c r="E11" t="n">
-        <v>24453.63881360432</v>
+        <v>84579.1923418149</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2650178048492354</v>
+        <v>0.3823195171964358</v>
       </c>
     </row>
     <row r="12">
@@ -5303,19 +4571,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>68575.67328894761</v>
+        <v>89895.83939206997</v>
       </c>
       <c r="D12" t="n">
-        <v>1.199191169515322E8</v>
+        <v>8.344894648233004E8</v>
       </c>
       <c r="E12" t="n">
-        <v>10950.758738623192</v>
+        <v>28887.531303718224</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1596886798687565</v>
+        <v>0.32134447488419016</v>
       </c>
     </row>
     <row r="13">
@@ -5323,19 +4591,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>65858.42897655317</v>
+        <v>173641.94723582527</v>
       </c>
       <c r="D13" t="n">
-        <v>8.142238892108728E7</v>
+        <v>4.504728200893002E9</v>
       </c>
       <c r="E13" t="n">
-        <v>9023.435538700727</v>
+        <v>67117.27200127402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13701261446599702</v>
+        <v>0.3865268333470208</v>
       </c>
     </row>
     <row r="14">
@@ -5343,19 +4611,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>86790.59850654732</v>
+        <v>370454.0453848723</v>
       </c>
       <c r="D14" t="n">
-        <v>1.965733549639212E8</v>
+        <v>4.866998512803355E10</v>
       </c>
       <c r="E14" t="n">
-        <v>14020.4620096458</v>
+        <v>220612.74924181864</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16154355714678154</v>
+        <v>0.5955198815891443</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +4631,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>95734.84376933085</v>
+        <v>48933.384995211214</v>
       </c>
       <c r="D15" t="n">
-        <v>2.469083015430705E8</v>
+        <v>2.7852858661167383E8</v>
       </c>
       <c r="E15" t="n">
-        <v>15713.316058142233</v>
+        <v>16689.17573194296</v>
       </c>
       <c r="F15" t="n">
-        <v>0.16413372017405511</v>
+        <v>0.3410590894861702</v>
       </c>
     </row>
   </sheetData>
@@ -5414,19 +4682,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1984.0</v>
+        <v>1980.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39506.2652189262</v>
+        <v>37593.47178279423</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2830973134799333E8</v>
+        <v>1.1469278344672582E9</v>
       </c>
       <c r="E2" t="n">
-        <v>11327.388549352112</v>
+        <v>33866.32301368511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28672385219358876</v>
+        <v>0.9008564893755049</v>
       </c>
     </row>
     <row r="3">
@@ -5434,19 +4702,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1987.0</v>
+        <v>1983.0</v>
       </c>
       <c r="C3" t="n">
-        <v>136694.7292276805</v>
+        <v>56367.90117042876</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5338936399278576E9</v>
+        <v>7.531923204375198E7</v>
       </c>
       <c r="E3" t="n">
-        <v>39164.95423114724</v>
+        <v>8678.665337697495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.28651400425186535</v>
+        <v>0.15396467062801375</v>
       </c>
     </row>
     <row r="4">
@@ -5454,19 +4722,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1990.0</v>
+        <v>1986.0</v>
       </c>
       <c r="C4" t="n">
-        <v>107076.07709051284</v>
+        <v>140405.03370105193</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0686461381030037E9</v>
+        <v>2.255266444371495E9</v>
       </c>
       <c r="E4" t="n">
-        <v>45482.37172908866</v>
+        <v>47489.645654305474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4247668850497932</v>
+        <v>0.3382332128876493</v>
       </c>
     </row>
     <row r="5">
@@ -5474,19 +4742,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>1991.0</v>
       </c>
       <c r="C5" t="n">
-        <v>104479.59271794511</v>
+        <v>212812.83792393573</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3523640469766798E9</v>
+        <v>1.0806767406439977E9</v>
       </c>
       <c r="E5" t="n">
-        <v>36774.50267477019</v>
+        <v>32873.64811888084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.35197785249840385</v>
+        <v>0.15447211004549757</v>
       </c>
     </row>
     <row r="6">
@@ -5494,19 +4762,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1996.0</v>
+        <v>1994.0</v>
       </c>
       <c r="C6" t="n">
-        <v>98965.05256508115</v>
+        <v>88463.30021932717</v>
       </c>
       <c r="D6" t="n">
-        <v>7.073345677402056E8</v>
+        <v>1.9306058844496195E9</v>
       </c>
       <c r="E6" t="n">
-        <v>26595.762213935617</v>
+        <v>43938.66047627783</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2687389287894914</v>
+        <v>0.49668800923479745</v>
       </c>
     </row>
     <row r="7">
@@ -5514,19 +4782,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1999.0</v>
+        <v>1997.0</v>
       </c>
       <c r="C7" t="n">
-        <v>242186.97242413822</v>
+        <v>87391.37100469752</v>
       </c>
       <c r="D7" t="n">
-        <v>2.164110293995178E10</v>
+        <v>7.302366685706296E8</v>
       </c>
       <c r="E7" t="n">
-        <v>147109.15314810217</v>
+        <v>27022.89156568241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6074197619947626</v>
+        <v>0.3092169313172791</v>
       </c>
     </row>
     <row r="8">
@@ -5534,19 +4802,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2001.0</v>
+        <v>2000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>343613.6499993552</v>
+        <v>205373.18662619212</v>
       </c>
       <c r="D8" t="n">
-        <v>4.221983739068083E10</v>
+        <v>3.627754487410157E9</v>
       </c>
       <c r="E8" t="n">
-        <v>205474.66362225986</v>
+        <v>60230.84332308619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5979816681399166</v>
+        <v>0.2932751071965141</v>
       </c>
     </row>
     <row r="9">
@@ -5554,19 +4822,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2003.0</v>
+        <v>2002.0</v>
       </c>
       <c r="C9" t="n">
-        <v>66309.94663482861</v>
+        <v>178791.32853015303</v>
       </c>
       <c r="D9" t="n">
-        <v>1.021150676013936E9</v>
+        <v>2.2684949508626804E9</v>
       </c>
       <c r="E9" t="n">
-        <v>31955.44829937355</v>
+        <v>47628.719811293275</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4819103305172815</v>
+        <v>0.26639278427455015</v>
       </c>
     </row>
     <row r="10">
@@ -5574,19 +4842,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2005.0</v>
+        <v>2004.0</v>
       </c>
       <c r="C10" t="n">
-        <v>358998.6890254153</v>
+        <v>189446.11224836987</v>
       </c>
       <c r="D10" t="n">
-        <v>1.753825308539476E10</v>
+        <v>1.753885853889462E9</v>
       </c>
       <c r="E10" t="n">
-        <v>132432.06970139357</v>
+        <v>41879.42041014252</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36889290615771037</v>
+        <v>0.22106244310380604</v>
       </c>
     </row>
     <row r="11">
@@ -5594,19 +4862,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C11" t="n">
-        <v>221226.45728901695</v>
+        <v>219349.63424688563</v>
       </c>
       <c r="D11" t="n">
-        <v>7.153639777193719E9</v>
+        <v>2.833224663907719E9</v>
       </c>
       <c r="E11" t="n">
-        <v>84579.1923418149</v>
+        <v>53228.0439609396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3823195171964358</v>
+        <v>0.24266301671161933</v>
       </c>
     </row>
     <row r="12">
@@ -5614,19 +4882,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="C12" t="n">
-        <v>89895.83939206997</v>
+        <v>217318.48485790766</v>
       </c>
       <c r="D12" t="n">
-        <v>8.344894648233004E8</v>
+        <v>2.2563857072257495E9</v>
       </c>
       <c r="E12" t="n">
-        <v>28887.531303718224</v>
+        <v>47501.42847563376</v>
       </c>
       <c r="F12" t="n">
-        <v>0.32134447488419016</v>
+        <v>0.21857978858398663</v>
       </c>
     </row>
     <row r="13">
@@ -5634,19 +4902,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="C13" t="n">
-        <v>173641.94723582527</v>
+        <v>285164.6025586077</v>
       </c>
       <c r="D13" t="n">
-        <v>4.504728200893002E9</v>
+        <v>2.060377673859271E10</v>
       </c>
       <c r="E13" t="n">
-        <v>67117.27200127402</v>
+        <v>143540.15723341223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3865268333470208</v>
+        <v>0.5033589581088049</v>
       </c>
     </row>
     <row r="14">
@@ -5654,19 +4922,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C14" t="n">
-        <v>370454.0453848723</v>
+        <v>472895.1507365388</v>
       </c>
       <c r="D14" t="n">
-        <v>4.866998512803355E10</v>
+        <v>2.1594362892526917E10</v>
       </c>
       <c r="E14" t="n">
-        <v>220612.74924181864</v>
+        <v>146950.20548650794</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5955198815891443</v>
+        <v>0.31074584980969155</v>
       </c>
     </row>
     <row r="15">
@@ -5674,19 +4942,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="C15" t="n">
-        <v>48933.384995211214</v>
+        <v>253216.46121030409</v>
       </c>
       <c r="D15" t="n">
-        <v>2.7852858661167383E8</v>
+        <v>2.177621011886313E9</v>
       </c>
       <c r="E15" t="n">
-        <v>16689.17573194296</v>
+        <v>46664.98700188732</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3410590894861702</v>
+        <v>0.18428891541585288</v>
       </c>
     </row>
   </sheetData>
@@ -5725,19 +4993,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1980.0</v>
+        <v>1984.0</v>
       </c>
       <c r="C2" t="n">
-        <v>37593.47178279423</v>
+        <v>68633.7891577465</v>
       </c>
       <c r="D2" t="n">
-        <v>1.1469278344672582E9</v>
+        <v>3.781212190838004E7</v>
       </c>
       <c r="E2" t="n">
-        <v>33866.32301368511</v>
+        <v>6149.156194827062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9008564893755049</v>
+        <v>0.08959371572351872</v>
       </c>
     </row>
     <row r="3">
@@ -5745,19 +5013,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1983.0</v>
+        <v>1987.0</v>
       </c>
       <c r="C3" t="n">
-        <v>56367.90117042876</v>
+        <v>63394.41607893733</v>
       </c>
       <c r="D3" t="n">
-        <v>7.531923204375198E7</v>
+        <v>5.458865352012821E7</v>
       </c>
       <c r="E3" t="n">
-        <v>8678.665337697495</v>
+        <v>7388.413464345929</v>
       </c>
       <c r="F3" t="n">
-        <v>0.15396467062801375</v>
+        <v>0.11654675476695045</v>
       </c>
     </row>
     <row r="4">
@@ -5765,19 +5033,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1986.0</v>
+        <v>1990.0</v>
       </c>
       <c r="C4" t="n">
-        <v>140405.03370105193</v>
+        <v>96596.8190505549</v>
       </c>
       <c r="D4" t="n">
-        <v>2.255266444371495E9</v>
+        <v>1.5313196731019202E8</v>
       </c>
       <c r="E4" t="n">
-        <v>47489.645654305474</v>
+        <v>12374.650189407055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3382332128876493</v>
+        <v>0.12810618725375067</v>
       </c>
     </row>
     <row r="5">
@@ -5785,19 +5053,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1991.0</v>
+        <v>1993.0</v>
       </c>
       <c r="C5" t="n">
-        <v>212812.83792393573</v>
+        <v>85549.05085398392</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0806767406439977E9</v>
+        <v>4.148786820351742E7</v>
       </c>
       <c r="E5" t="n">
-        <v>32873.64811888084</v>
+        <v>6441.107684514941</v>
       </c>
       <c r="F5" t="n">
-        <v>0.15447211004549757</v>
+        <v>0.0752913985627812</v>
       </c>
     </row>
     <row r="6">
@@ -5805,19 +5073,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1994.0</v>
+        <v>1996.0</v>
       </c>
       <c r="C6" t="n">
-        <v>88463.30021932717</v>
+        <v>79530.24950163432</v>
       </c>
       <c r="D6" t="n">
-        <v>1.9306058844496195E9</v>
+        <v>3.1628340545021616E7</v>
       </c>
       <c r="E6" t="n">
-        <v>43938.66047627783</v>
+        <v>5623.907942438391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.49668800923479745</v>
+        <v>0.07071407392381966</v>
       </c>
     </row>
     <row r="7">
@@ -5825,19 +5093,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1997.0</v>
+        <v>1999.0</v>
       </c>
       <c r="C7" t="n">
-        <v>87391.37100469752</v>
+        <v>74245.21680594703</v>
       </c>
       <c r="D7" t="n">
-        <v>7.302366685706296E8</v>
+        <v>2.7413205957390133E7</v>
       </c>
       <c r="E7" t="n">
-        <v>27022.89156568241</v>
+        <v>5235.762213602728</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3092169313172791</v>
+        <v>0.07051985890602644</v>
       </c>
     </row>
     <row r="8">
@@ -5845,19 +5113,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2000.0</v>
+        <v>2001.0</v>
       </c>
       <c r="C8" t="n">
-        <v>205373.18662619212</v>
+        <v>32423.90797904045</v>
       </c>
       <c r="D8" t="n">
-        <v>3.627754487410157E9</v>
+        <v>1.4122295718716972E7</v>
       </c>
       <c r="E8" t="n">
-        <v>60230.84332308619</v>
+        <v>3757.9643051414114</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2932751071965141</v>
+        <v>0.11590102919027048</v>
       </c>
     </row>
     <row r="9">
@@ -5865,19 +5133,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2002.0</v>
+        <v>2003.0</v>
       </c>
       <c r="C9" t="n">
-        <v>178791.32853015303</v>
+        <v>99296.62617433087</v>
       </c>
       <c r="D9" t="n">
-        <v>2.2684949508626804E9</v>
+        <v>1.1118576120922644E8</v>
       </c>
       <c r="E9" t="n">
-        <v>47628.719811293275</v>
+        <v>10544.46590440817</v>
       </c>
       <c r="F9" t="n">
-        <v>0.26639278427455015</v>
+        <v>0.10619158284286215</v>
       </c>
     </row>
     <row r="10">
@@ -5885,19 +5153,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2004.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C10" t="n">
-        <v>189446.11224836987</v>
+        <v>80560.47717498823</v>
       </c>
       <c r="D10" t="n">
-        <v>1.753885853889462E9</v>
+        <v>4.620545637460832E7</v>
       </c>
       <c r="E10" t="n">
-        <v>41879.42041014252</v>
+        <v>6797.459552995392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.22106244310380604</v>
+        <v>0.08437710141947635</v>
       </c>
     </row>
     <row r="11">
@@ -5905,19 +5173,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2006.0</v>
+        <v>2007.0</v>
       </c>
       <c r="C11" t="n">
-        <v>219349.63424688563</v>
+        <v>71468.5091960996</v>
       </c>
       <c r="D11" t="n">
-        <v>2.833224663907719E9</v>
+        <v>5.056779960558433E7</v>
       </c>
       <c r="E11" t="n">
-        <v>53228.0439609396</v>
+        <v>7111.103965319613</v>
       </c>
       <c r="F11" t="n">
-        <v>0.24266301671161933</v>
+        <v>0.09949982230366296</v>
       </c>
     </row>
     <row r="12">
@@ -5925,19 +5193,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="C12" t="n">
-        <v>217318.48485790766</v>
+        <v>76276.93110273265</v>
       </c>
       <c r="D12" t="n">
-        <v>2.2563857072257495E9</v>
+        <v>4.1433952986025654E7</v>
       </c>
       <c r="E12" t="n">
-        <v>47501.42847563376</v>
+        <v>6436.9210796797615</v>
       </c>
       <c r="F12" t="n">
-        <v>0.21857978858398663</v>
+        <v>0.08438883141496967</v>
       </c>
     </row>
     <row r="13">
@@ -5945,19 +5213,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="C13" t="n">
-        <v>285164.6025586077</v>
+        <v>77530.87007075697</v>
       </c>
       <c r="D13" t="n">
-        <v>2.060377673859271E10</v>
+        <v>5.472765854450502E7</v>
       </c>
       <c r="E13" t="n">
-        <v>143540.15723341223</v>
+        <v>7397.814443773582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5033589581088049</v>
+        <v>0.09541766314530092</v>
       </c>
     </row>
     <row r="14">
@@ -5965,19 +5233,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="C14" t="n">
-        <v>472895.1507365388</v>
+        <v>82738.89311549942</v>
       </c>
       <c r="D14" t="n">
-        <v>2.1594362892526917E10</v>
+        <v>3.200149172776994E8</v>
       </c>
       <c r="E14" t="n">
-        <v>146950.20548650794</v>
+        <v>17888.960765726428</v>
       </c>
       <c r="F14" t="n">
-        <v>0.31074584980969155</v>
+        <v>0.21620981490233765</v>
       </c>
     </row>
     <row r="15">
@@ -5985,19 +5253,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="C15" t="n">
-        <v>253216.46121030409</v>
+        <v>53067.00075185715</v>
       </c>
       <c r="D15" t="n">
-        <v>2.177621011886313E9</v>
+        <v>2.4956950153002646E7</v>
       </c>
       <c r="E15" t="n">
-        <v>46664.98700188732</v>
+        <v>4995.693160413542</v>
       </c>
       <c r="F15" t="n">
-        <v>0.18428891541585288</v>
+        <v>0.09413935382882385</v>
       </c>
     </row>
   </sheetData>
